--- a/Corona.xlsx
+++ b/Corona.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Insper\2° semestre\CDados\Projetos\Projeto1_Cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B4E70D-C707-4EDF-9795-21B01FE46E39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A361D-AB75-459D-8C9C-3DD585EAA010}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="1117">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3514,6 +3522,264 @@
   </si>
   <si>
     <t>0=irrelevante / 1=relevante</t>
+  </si>
+  <si>
+    <t>rt @santtosdandara: gente, esse corona vírus é sério. não é só o que estão dizendo na tv, infelizmente esse vírus chegou na pessoa que me d…</t>
+  </si>
+  <si>
+    <t>rt @rachel_azeredo: o 1º óbito(confirmado) pela covid19, no rj é de uma doméstica. a patroa chegou da itália, deu positivo p o corona e ñ d…</t>
+  </si>
+  <si>
+    <t>rt @paulaataisa: "primeiro caso de corona vírus é confirmado no brasil"
+- eu vou continuar saindo, isso não pega em pobre rsrsrs
+"428 cas…</t>
+  </si>
+  <si>
+    <t>proteger-se do corona vírus é privilégio, vcs sabem disso, né?</t>
+  </si>
+  <si>
+    <t>rt @lisabarcelox: falar p vcs, a situação do corona tá bem pior do q mídia tá mostrando</t>
+  </si>
+  <si>
+    <t>@abc e o teste p corona faço aonde????</t>
+  </si>
+  <si>
+    <t>prefeitura municipal de são paulo: prefeitura: forneça acolhida e álcool gel para os moradores de rua se protegerem do corona - assine a petição! https://t.co/uup6ql0cse via @change_br</t>
+  </si>
+  <si>
+    <t>rt @tesoureiros: atenção: panelaço às 19h (horario da live do capitão corona) https://t.co/zspff7poi8</t>
+  </si>
+  <si>
+    <t>agora tem 4 casos de corona vírus em maceió, tô desesperada</t>
+  </si>
+  <si>
+    <t>rt @jvbarbosa19: qual o nível de cuidado da mãe de vocês com o corona? pq a minha todo dinheiro que entra em casa ela ensopa de álcool e pe…</t>
+  </si>
+  <si>
+    <t>rt @_lara_si: ter rinite em tempos de corona vírus é ser julgado 100% do tempo</t>
+  </si>
+  <si>
+    <t>rt @mafinhaveronico: se o trump descobriu mesmo a cura pro corona com um remedio pra malária la de 1950 e isso der certo pode eleger ele pr…</t>
+  </si>
+  <si>
+    <t>@essediafoilouco mas a china veio se esforçar e prover recursos ao combate do corona, de fato, este ano. mais precisamente fev/março. ainda considero a possibilidade de o segundo semestre, os campeonatos irem voltando aos poucos.</t>
+  </si>
+  <si>
+    <t>rt @zericardoam: o combate ao coronavírus e suas consequências é um dever de todos nós. por isso, apresentei projeto para garantir um auxíl…</t>
+  </si>
+  <si>
+    <t>rt @rayrurulele: até a sirene do morro tocando falando do corona vírus p ficarem em casa bglh tá sério..</t>
+  </si>
+  <si>
+    <t>rt @clauwild1: autoridades alemãs estão preocupadas com os radicais de esquerda usando a atual crise do corona para uma agitação militante.…</t>
+  </si>
+  <si>
+    <t>@tthaylini @nayan_thifany tds q tao no gp de risco tem q usar , assim como os q estao c o corona. so q obv , pessoa q n sabe usar vai ficar td hr mexendo na máscara pq ta incomodando e vai ter ctt c o resto.  mas o correto é usar sim (hosp q a minha mae trab deu essas indicações kkkk)</t>
+  </si>
+  <si>
+    <t>rt @iigorlanna: galera acha que é corona férias https://t.co/nqobrudead</t>
+  </si>
+  <si>
+    <t>e la vamos nós: até ontem segundo o estadão a itália tem registrada 2978 mortes por corona ja o uol notícias no dia 26/02 noticiava q a oms alegou q a gripe sazonal mata por ano na europa 60000 pessoas, fiz minhas contas isso da uma media de 5000 pessoas por mês para a  +</t>
+  </si>
+  <si>
+    <t>rt @ayako__hachi: sinceramente, se você chega para uma pessoa só por ser asiática perguntando se tá com corona vírus, e ainda acha graça:…</t>
+  </si>
+  <si>
+    <t>o homem que brincava tanto com esse negócio de corona, hoje fez o teste e vai ficar de isolamento por sei la quantos dias</t>
+  </si>
+  <si>
+    <t>mas um caso de corona vírus confirmado em cj, e o medo só aumentando</t>
+  </si>
+  <si>
+    <t>pqp o corona vírus atingiu a groenlândia, se chegar em madagascar a gente perde</t>
+  </si>
+  <si>
+    <t>to com sintomas ñ sei se é da alergia ou corona
+pessoas que se afastaram permaneçam distantes</t>
+  </si>
+  <si>
+    <t>a sirene do morro dando atenção pros moradores ficarem em casa pra combater o corona virus icones lendários</t>
+  </si>
+  <si>
+    <t>recomendo esse áudio as pessoas que tão achando que corona é brincadeira. https://t.co/jbwttgmvoo</t>
+  </si>
+  <si>
+    <t>e o corona vírus chegou na sabesp...</t>
+  </si>
+  <si>
+    <t>a vontade de me inscrever pra trabalhar como voluntária no diagnóstico de pacientes do corona que tá rolando lá na ufrj organizado pelo departamento de genética do instituto de biologia é taaaao grande.........</t>
+  </si>
+  <si>
+    <t>falei pra minha vó ficar em casa por causa do corona e ela "que se lasque não sou idosa só tenho 50 anos" olha sinceramente eu desisto</t>
+  </si>
+  <si>
+    <t>somente seis estados não confirmaram presença do corona virus, e um deles é o meu mt, mas duvido #naquarentenaeu</t>
+  </si>
+  <si>
+    <t>pessoas que provavelmente pegaram corona
+ https://t.co/ddkvhqw44k</t>
+  </si>
+  <si>
+    <t>a sirene da rocinha tocando por conta do corona vírus, literalmente é de ficar c medo</t>
+  </si>
+  <si>
+    <t>eu : a
+ sirene da chuva : atenção combata corona vírus, por favor evite sair</t>
+  </si>
+  <si>
+    <t>rt @adrillesrjorge: silenciar sobre a culpa do governo chinês sobre o corona vírus é dar liberdade pra que o erro se repita. silêncio e omi…</t>
+  </si>
+  <si>
+    <t>rt @anittaanarquist: e a anitta que lançou as prevenções antes do governo de como se prevenir contra o corona vírus:
+ https://t.co/9tlvcay8…</t>
+  </si>
+  <si>
+    <t>to cheia de colica e to com medo de tomar qualquer medicamento tá feliz corona</t>
+  </si>
+  <si>
+    <t>rt @ggabicast: mainha é da área da saúde e tá foda o desencontro de infos por causa do corona. ela confirmou que estão maquiando os dados e…</t>
+  </si>
+  <si>
+    <t>rt @sofiasantinoo: acabei de receber a notícia que eu tive contato direto com uma pessoa com corona há 10 dias atrás.
+é isso galera, obrig…</t>
+  </si>
+  <si>
+    <t>@jhowsiel toma banho de água e sabão, o álcool em gel é para caso vc não tenha acesso a água e sabão. vamos parar de espalhar que álcool em gel é a única medida de afastar corona vírus 🙄</t>
+  </si>
+  <si>
+    <t>notícia do dia: talvez a minha vizinha esteja com corona</t>
+  </si>
+  <si>
+    <t>se até ao meio de abril não estiver em lisboa o número de suicidios por causa do corona vírus também vai aumentar</t>
+  </si>
+  <si>
+    <t>n posso nem tossir q ja dizem q to com corona</t>
+  </si>
+  <si>
+    <t>a empresa onde eu trabalhava tá cortando a equipe por causa do corona vírus... fiquei sabendo que mandaram e vão mandar mais gente embora...</t>
+  </si>
+  <si>
+    <t>rt @amandaferrera8: tutorial de prevenção contra o corona vírus 🦠 
+. 
+.
+.
+.
+.
+fiz esse challenge para reforçar a vcs a importância de se cu…</t>
+  </si>
+  <si>
+    <t>ok, tem dois casos do corona virus no meu ape, já to indo de mala e cuia para minha mãe 🤦🏽‍♀️</t>
+  </si>
+  <si>
+    <t>fala galera! 
+.
+diante dessa pandemia do corona vírus que estamos vivendo percebi que muitas pessoas pela rua, e até dentro de casa, não estão dando a devida atenção a nossa atual situação: isolamento e prevenção… https://t.co/s6j0qsxakc</t>
+  </si>
+  <si>
+    <t>rt @andre_rochadel: pessoal. agora é proibido, podem denunciar tuítes que:
+-neguem orientações de especialistas
+-estimulem tratamentos fals…</t>
+  </si>
+  <si>
+    <t>me pergunto se a pandemia de h1n1 de 2009 foi tão grave quanto a do corona vírus, óbvio que só tinha 8 anos de idade e o mundo não tava no auge da era tecnológica, mas na época minha mãe não se mostrou tão preocupada</t>
+  </si>
+  <si>
+    <t>@joseilan tio, com todo respeito aos idosos do meu brasil. eles estão perdendo a linha. fui obrigado a ir a farmácia agora, a rua está investada de idosos. tem mais idoso na rua hoje que corona no mundo. esse povo ou é maluco ou nunca teve juízo. maluquice.</t>
+  </si>
+  <si>
+    <t>475 mortes na italia em 24 horas por causa do corona vírus . 
+vamos continuar achando que é brincadeira</t>
+  </si>
+  <si>
+    <t>rt @tlmota: um bilhão de anos pra tomar essa decisão e ainda incompleta: que adianta fechar fronteiras terrestres e deixar os aeroportos ab…</t>
+  </si>
+  <si>
+    <t>rt @jhowsiel: mano cada notícia de morte por corona virus q eu vejo na tv meu cu tranca q n passa um wifi
+pelo amor de deus gnt vamo cuida…</t>
+  </si>
+  <si>
+    <t>rt @vitoriaaxszz: "fiquem em casa por causa do corona vírus" 
+moradores da dom jaime: https://t.co/j8m5oilsjq</t>
+  </si>
+  <si>
+    <t>bahia
+clube coloca fazendão à disposição do governo para auxiliar no combate ao novo corona vírus</t>
+  </si>
+  <si>
+    <t>rt @clownhejhuff: 4 mortes por corona.... e o brasileiro continua de brincadeira.....</t>
+  </si>
+  <si>
+    <t>pandemia de corona; cuide-se! #isolamento  #isolavirus no face e aqui.</t>
+  </si>
+  <si>
+    <t>rt @tito_breno: primeiro caso de corona vírus confirmado em petrópolis, tendo outros 25 casos suspeitos, acho que tá na hora de vocês levar…</t>
+  </si>
+  <si>
+    <t>entrei nos casos com suspeita de corona em tubarão, 14 dias de isolamento, depois disso quero de presente uma camiseta "corona, eu fui"</t>
+  </si>
+  <si>
+    <t>rt @politzoficial: em primeira mão, tudo que você precisa saber:
+- fda aprova remédio de malária (cloroquina) como tratamento para o vírus…</t>
+  </si>
+  <si>
+    <t>@jairbolsonaro por quê os correios não estão distribuindo álcool em gel para os carteiros? eles não tem como lavar as mãos o tempo todo. estão levando corona vírus de casa em casa!</t>
+  </si>
+  <si>
+    <t>rt @juarezroth: dica: não visite e nem receba nenhum amigo evangélico durante o corona. deixe que eles morram por sua própria burrice e não…</t>
+  </si>
+  <si>
+    <t>alguém sabe a origem da palavra caiu a ficha?
+é bem assim!
+china acaba de anunciar o quase controle do corona vírus.
+depois de espalharem o terror e derreterem todas as bolsas de valores, baixarem o preço do petróleo, irão comprar mais barato. https://t.co/ioffxffrvn</t>
+  </si>
+  <si>
+    <t>vovó chorando pq pensa que vivian tá com corona vírus</t>
+  </si>
+  <si>
+    <t>aí meu jesus acho q dessa vez não é psicológico não e não tô me sentindo bem será se corona chegou em mim??</t>
+  </si>
+  <si>
+    <t>rt @rrsupershock: vcs só vão levar o corona a sério quando cair alguém próximo de vcs né seus filho da puta</t>
+  </si>
+  <si>
+    <t>assim como a maioria das coisas ruins que aconteceram nesse país nos últimos 519 anos, o corona vírus 🦠 tbm chegou aqui através de brancos, ricos que vieram da europa.</t>
+  </si>
+  <si>
+    <t>rt @_ptkgasp: corona virus ta ai,pfv lavem as mãos e passem álcool em gel https://t.co/fdkpcrklw6</t>
+  </si>
+  <si>
+    <t>segundo a medica, eu estou com sintomas do corona vírus. kkk</t>
+  </si>
+  <si>
+    <t>enquanto isso eu tô aqui no salão com frio, arriscando pegar esse tal de corona vírus https://t.co/8nufesaxqb</t>
+  </si>
+  <si>
+    <t>rt @crushju7: oq q esae povo tem na cabeça de ir nos supermercados e estocar o maximo de comida acabando com toda a mercadoria sem pensar n…</t>
+  </si>
+  <si>
+    <t>índice de medo provocado pelo corona vírus provocou quedas bruscas para economia mundial, deixando o mercado financeira mundial sem rumo.
+é importante manter calma, e agir na prevenção.
+é fundamental ter disciplina e pensamento de longo prazo.
+#financas #covid19on #fightcovid19</t>
+  </si>
+  <si>
+    <t>nessa cena vemos algumas imbecilidades:
+1- quem pensa em comprar tanto álcool gel é doente mental, desprezível e egoísta 
+2- é também burra pra caralho, pois esse álcool de limpeza nos carrinhos é 46°, e somente o álcool gel acima de 70° funciona contra o corona!
+leva tudo! https://t.co/b0bvizyhsg</t>
+  </si>
+  <si>
+    <t>não aguento esses artistas fazendo drama, enquanto tem trabalhador sem escolha de ficar em casa, gente quase sendo demitida e trabalhador autônomo não ganhando um real. as pessoas pobres com corona e as que nem sabem pq não tem como testar</t>
+  </si>
+  <si>
+    <t>rt @andreluiz332: o @lulaoficial  viajou a europa  inteira, e recusou a fazer o teste do corona vírus, e niguem fala nada
+@redeglobo 
+@em_c…</t>
+  </si>
+  <si>
+    <t>mano, o brasileiro médio precisa estar morrendo pra ir pro hospital, os números do corona por aqui vão ser super maquiados com isso</t>
   </si>
 </sst>
 </file>
@@ -3587,7 +3853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3602,12 +3868,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3616,6 +3876,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3959,10 +4228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D690"/>
+  <dimension ref="A1:D751"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="A689" sqref="A689:XFD690"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D678" sqref="D678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,10 +4245,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -3989,11 +4258,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4005,27 +4274,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4037,43 +4306,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4085,19 +4354,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4109,35 +4378,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4157,27 +4426,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>0</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>0</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4197,27 +4466,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>0</v>
-      </c>
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>0</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>0</v>
-      </c>
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>0</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4229,139 +4498,139 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>0</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>0</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>0</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>0</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>0</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>0</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>0</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>0</v>
-      </c>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>0</v>
-      </c>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>0</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>0</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>0</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>0</v>
-      </c>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>0</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>0</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>0</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>0</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>0</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>0</v>
-      </c>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>0</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>0</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>0</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>0</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>0</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>0</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>0</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>0</v>
-      </c>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>0</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>0</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>0</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4373,187 +4642,187 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>0</v>
-      </c>
-      <c r="B51" s="9" t="s">
+    <row r="51" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>0</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>0</v>
-      </c>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>0</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>0</v>
-      </c>
-      <c r="B53" s="9" t="s">
+    <row r="53" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>0</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>0</v>
-      </c>
-      <c r="B54" s="9" t="s">
+    <row r="54" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>0</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <v>0</v>
-      </c>
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>0</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>0</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    <row r="56" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>0</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>0</v>
-      </c>
-      <c r="B57" s="9" t="s">
+    <row r="57" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>0</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>0</v>
-      </c>
-      <c r="B58" s="9" t="s">
+    <row r="58" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>0</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <v>0</v>
-      </c>
-      <c r="B59" s="9" t="s">
+    <row r="59" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>0</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>0</v>
-      </c>
-      <c r="B60" s="9" t="s">
+    <row r="60" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>0</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <v>0</v>
-      </c>
-      <c r="B61" s="9" t="s">
+    <row r="61" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>0</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>0</v>
-      </c>
-      <c r="B62" s="9" t="s">
+    <row r="62" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>0</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>0</v>
-      </c>
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>0</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>0</v>
-      </c>
-      <c r="B64" s="9" t="s">
+    <row r="64" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>0</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>0</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    <row r="65" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>0</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>0</v>
-      </c>
-      <c r="B66" s="9" t="s">
+    <row r="66" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>0</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <v>0</v>
-      </c>
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>0</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <v>0</v>
-      </c>
-      <c r="B68" s="9" t="s">
+    <row r="68" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>0</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>0</v>
-      </c>
-      <c r="B69" s="9" t="s">
+    <row r="69" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>0</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>0</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    <row r="70" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>0</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <v>0</v>
-      </c>
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>0</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>0</v>
-      </c>
-      <c r="B72" s="9" t="s">
+    <row r="72" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>0</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>0</v>
-      </c>
-      <c r="B73" s="9" t="s">
+    <row r="73" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>0</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4565,11 +4834,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>0</v>
-      </c>
-      <c r="B75" s="9" t="s">
+    <row r="75" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>0</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4581,43 +4850,43 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>0</v>
-      </c>
-      <c r="B77" s="9" t="s">
+    <row r="77" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>0</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>0</v>
-      </c>
-      <c r="B78" s="9" t="s">
+    <row r="78" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>0</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
-        <v>0</v>
-      </c>
-      <c r="B79" s="9" t="s">
+    <row r="79" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>0</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
-        <v>0</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    <row r="80" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>0</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <v>0</v>
-      </c>
-      <c r="B81" s="9" t="s">
+    <row r="81" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>0</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4629,11 +4898,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
-        <v>0</v>
-      </c>
-      <c r="B83" s="9" t="s">
+    <row r="83" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>0</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4653,35 +4922,35 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
-        <v>0</v>
-      </c>
-      <c r="B86" s="9" t="s">
+    <row r="86" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>0</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <v>0</v>
-      </c>
-      <c r="B87" s="9" t="s">
+    <row r="87" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>0</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <v>0</v>
-      </c>
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>0</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
-        <v>0</v>
-      </c>
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>0</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4693,19 +4962,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
-        <v>0</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>0</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
-        <v>0</v>
-      </c>
-      <c r="B92" s="9" t="s">
+    <row r="92" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>0</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4725,27 +4994,27 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
-        <v>0</v>
-      </c>
-      <c r="B95" s="9" t="s">
+    <row r="95" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>0</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <v>0</v>
-      </c>
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>0</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <v>0</v>
-      </c>
-      <c r="B97" s="9" t="s">
+    <row r="97" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>0</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4765,43 +5034,43 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
-        <v>0</v>
-      </c>
-      <c r="B100" s="9" t="s">
+    <row r="100" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>0</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
-        <v>0</v>
-      </c>
-      <c r="B101" s="9" t="s">
+    <row r="101" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>0</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
-        <v>0</v>
-      </c>
-      <c r="B102" s="9" t="s">
+    <row r="102" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>0</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
-        <v>0</v>
-      </c>
-      <c r="B103" s="9" t="s">
+    <row r="103" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>0</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
-        <v>0</v>
-      </c>
-      <c r="B104" s="9" t="s">
+    <row r="104" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>0</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4821,11 +5090,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
-        <v>0</v>
-      </c>
-      <c r="B107" s="9" t="s">
+    <row r="107" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>0</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4845,11 +5114,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
-        <v>0</v>
-      </c>
-      <c r="B110" s="9" t="s">
+    <row r="110" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>0</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4861,27 +5130,27 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
-        <v>0</v>
-      </c>
-      <c r="B112" s="9" t="s">
+    <row r="112" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>0</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
-        <v>0</v>
-      </c>
-      <c r="B113" s="9" t="s">
+    <row r="113" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>0</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
-        <v>0</v>
-      </c>
-      <c r="B114" s="9" t="s">
+    <row r="114" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>0</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4901,75 +5170,75 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8">
-        <v>0</v>
-      </c>
-      <c r="B117" s="9" t="s">
+    <row r="117" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>0</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
-        <v>0</v>
-      </c>
-      <c r="B118" s="9" t="s">
+    <row r="118" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>0</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
-        <v>0</v>
-      </c>
-      <c r="B119" s="9" t="s">
+    <row r="119" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>0</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
-        <v>0</v>
-      </c>
-      <c r="B120" s="9" t="s">
+    <row r="120" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>0</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
-        <v>0</v>
-      </c>
-      <c r="B121" s="9" t="s">
+    <row r="121" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>0</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8">
-        <v>0</v>
-      </c>
-      <c r="B122" s="9" t="s">
+    <row r="122" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>0</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8">
-        <v>0</v>
-      </c>
-      <c r="B123" s="9" t="s">
+    <row r="123" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>0</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
-        <v>0</v>
-      </c>
-      <c r="B124" s="9" t="s">
+    <row r="124" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>0</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
-        <v>0</v>
-      </c>
-      <c r="B125" s="9" t="s">
+    <row r="125" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>0</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4981,11 +5250,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
-        <v>0</v>
-      </c>
-      <c r="B127" s="9" t="s">
+    <row r="127" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>0</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4997,51 +5266,51 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8">
-        <v>0</v>
-      </c>
-      <c r="B129" s="9" t="s">
+    <row r="129" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>0</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
-        <v>0</v>
-      </c>
-      <c r="B130" s="9" t="s">
+    <row r="130" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>0</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
-        <v>0</v>
-      </c>
-      <c r="B131" s="9" t="s">
+    <row r="131" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>0</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8">
-        <v>0</v>
-      </c>
-      <c r="B132" s="9" t="s">
+    <row r="132" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>0</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
-        <v>0</v>
-      </c>
-      <c r="B133" s="9" t="s">
+    <row r="133" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>0</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
-        <v>0</v>
-      </c>
-      <c r="B134" s="9" t="s">
+    <row r="134" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>0</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5053,27 +5322,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8">
-        <v>0</v>
-      </c>
-      <c r="B136" s="9" t="s">
+    <row r="136" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>0</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8">
-        <v>0</v>
-      </c>
-      <c r="B137" s="9" t="s">
+    <row r="137" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>0</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8">
-        <v>0</v>
-      </c>
-      <c r="B138" s="9" t="s">
+    <row r="138" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>0</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5085,27 +5354,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8">
-        <v>0</v>
-      </c>
-      <c r="B140" s="9" t="s">
+    <row r="140" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>0</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
-        <v>0</v>
-      </c>
-      <c r="B141" s="9" t="s">
+    <row r="141" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>0</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
-        <v>0</v>
-      </c>
-      <c r="B142" s="9" t="s">
+    <row r="142" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>0</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5117,11 +5386,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
-        <v>0</v>
-      </c>
-      <c r="B144" s="9" t="s">
+    <row r="144" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>0</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5133,19 +5402,19 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
-        <v>0</v>
-      </c>
-      <c r="B146" s="9" t="s">
+    <row r="146" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>0</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8">
-        <v>0</v>
-      </c>
-      <c r="B147" s="9" t="s">
+    <row r="147" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>0</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5157,11 +5426,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8">
-        <v>0</v>
-      </c>
-      <c r="B149" s="9" t="s">
+    <row r="149" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>0</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5181,11 +5450,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
-        <v>0</v>
-      </c>
-      <c r="B152" s="9" t="s">
+    <row r="152" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>0</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5205,11 +5474,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8">
-        <v>0</v>
-      </c>
-      <c r="B155" s="9" t="s">
+    <row r="155" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>0</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5229,11 +5498,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8">
-        <v>0</v>
-      </c>
-      <c r="B158" s="9" t="s">
+    <row r="158" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>0</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5245,107 +5514,107 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8">
-        <v>0</v>
-      </c>
-      <c r="B160" s="9" t="s">
+    <row r="160" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>0</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8">
-        <v>0</v>
-      </c>
-      <c r="B161" s="9" t="s">
+    <row r="161" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>0</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8">
-        <v>0</v>
-      </c>
-      <c r="B162" s="9" t="s">
+    <row r="162" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>0</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8">
-        <v>0</v>
-      </c>
-      <c r="B163" s="9" t="s">
+    <row r="163" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>0</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8">
-        <v>0</v>
-      </c>
-      <c r="B164" s="9" t="s">
+    <row r="164" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>0</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8">
-        <v>0</v>
-      </c>
-      <c r="B165" s="9" t="s">
+    <row r="165" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>0</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8">
-        <v>0</v>
-      </c>
-      <c r="B166" s="9" t="s">
+    <row r="166" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>0</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8">
-        <v>0</v>
-      </c>
-      <c r="B167" s="9" t="s">
+    <row r="167" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>0</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8">
-        <v>0</v>
-      </c>
-      <c r="B168" s="9" t="s">
+    <row r="168" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>0</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8">
-        <v>0</v>
-      </c>
-      <c r="B169" s="9" t="s">
+    <row r="169" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>0</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8">
-        <v>0</v>
-      </c>
-      <c r="B170" s="9" t="s">
+    <row r="170" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>0</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8">
-        <v>0</v>
-      </c>
-      <c r="B171" s="9" t="s">
+    <row r="171" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>0</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8">
-        <v>0</v>
-      </c>
-      <c r="B172" s="9" t="s">
+    <row r="172" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>0</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5357,11 +5626,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8">
-        <v>0</v>
-      </c>
-      <c r="B174" s="9" t="s">
+    <row r="174" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>0</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5381,27 +5650,27 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8">
-        <v>0</v>
-      </c>
-      <c r="B177" s="9" t="s">
+    <row r="177" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>0</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8">
-        <v>0</v>
-      </c>
-      <c r="B178" s="9" t="s">
+    <row r="178" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>0</v>
+      </c>
+      <c r="B178" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8">
-        <v>0</v>
-      </c>
-      <c r="B179" s="9" t="s">
+    <row r="179" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>0</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5421,11 +5690,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8">
-        <v>0</v>
-      </c>
-      <c r="B182" s="9" t="s">
+    <row r="182" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>0</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5461,51 +5730,51 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8">
-        <v>0</v>
-      </c>
-      <c r="B187" s="9" t="s">
+    <row r="187" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>0</v>
+      </c>
+      <c r="B187" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8">
-        <v>0</v>
-      </c>
-      <c r="B188" s="9" t="s">
+    <row r="188" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>0</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8">
-        <v>0</v>
-      </c>
-      <c r="B189" s="9" t="s">
+    <row r="189" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>0</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8">
-        <v>0</v>
-      </c>
-      <c r="B190" s="9" t="s">
+    <row r="190" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>0</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8">
-        <v>0</v>
-      </c>
-      <c r="B191" s="9" t="s">
+    <row r="191" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>0</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8">
-        <v>0</v>
-      </c>
-      <c r="B192" s="9" t="s">
+    <row r="192" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>0</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5517,35 +5786,35 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8">
-        <v>0</v>
-      </c>
-      <c r="B194" s="9" t="s">
+    <row r="194" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>0</v>
+      </c>
+      <c r="B194" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8">
-        <v>0</v>
-      </c>
-      <c r="B195" s="9" t="s">
+    <row r="195" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>0</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8">
-        <v>0</v>
-      </c>
-      <c r="B196" s="9" t="s">
+    <row r="196" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>0</v>
+      </c>
+      <c r="B196" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8">
-        <v>0</v>
-      </c>
-      <c r="B197" s="9" t="s">
+    <row r="197" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>0</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5557,35 +5826,35 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8">
-        <v>0</v>
-      </c>
-      <c r="B199" s="9" t="s">
+    <row r="199" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>0</v>
+      </c>
+      <c r="B199" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8">
-        <v>0</v>
-      </c>
-      <c r="B200" s="9" t="s">
+    <row r="200" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>0</v>
+      </c>
+      <c r="B200" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8">
-        <v>0</v>
-      </c>
-      <c r="B201" s="9" t="s">
+    <row r="201" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>0</v>
+      </c>
+      <c r="B201" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8">
-        <v>0</v>
-      </c>
-      <c r="B202" s="9" t="s">
+    <row r="202" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>0</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5605,67 +5874,67 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8">
-        <v>0</v>
-      </c>
-      <c r="B205" s="9" t="s">
+    <row r="205" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>0</v>
+      </c>
+      <c r="B205" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8">
-        <v>0</v>
-      </c>
-      <c r="B206" s="9" t="s">
+    <row r="206" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>0</v>
+      </c>
+      <c r="B206" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="8">
-        <v>0</v>
-      </c>
-      <c r="B207" s="9" t="s">
+    <row r="207" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>0</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8">
-        <v>0</v>
-      </c>
-      <c r="B208" s="9" t="s">
+    <row r="208" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>0</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8">
-        <v>0</v>
-      </c>
-      <c r="B209" s="9" t="s">
+    <row r="209" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>0</v>
+      </c>
+      <c r="B209" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8">
-        <v>0</v>
-      </c>
-      <c r="B210" s="9" t="s">
+    <row r="210" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>0</v>
+      </c>
+      <c r="B210" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8">
-        <v>0</v>
-      </c>
-      <c r="B211" s="9" t="s">
+    <row r="211" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>0</v>
+      </c>
+      <c r="B211" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="8">
-        <v>0</v>
-      </c>
-      <c r="B212" s="9" t="s">
+    <row r="212" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>0</v>
+      </c>
+      <c r="B212" s="7" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5677,19 +5946,19 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8">
-        <v>0</v>
-      </c>
-      <c r="B214" s="9" t="s">
+    <row r="214" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>0</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="8">
-        <v>0</v>
-      </c>
-      <c r="B215" s="9" t="s">
+    <row r="215" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <v>0</v>
+      </c>
+      <c r="B215" s="7" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5717,11 +5986,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8">
-        <v>0</v>
-      </c>
-      <c r="B219" s="9" t="s">
+    <row r="219" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>0</v>
+      </c>
+      <c r="B219" s="7" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5741,67 +6010,67 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="8">
-        <v>0</v>
-      </c>
-      <c r="B222" s="9" t="s">
+    <row r="222" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>0</v>
+      </c>
+      <c r="B222" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8">
-        <v>0</v>
-      </c>
-      <c r="B223" s="9" t="s">
+    <row r="223" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>0</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="8">
-        <v>0</v>
-      </c>
-      <c r="B224" s="9" t="s">
+    <row r="224" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>0</v>
+      </c>
+      <c r="B224" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="8">
-        <v>0</v>
-      </c>
-      <c r="B225" s="9" t="s">
+    <row r="225" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>0</v>
+      </c>
+      <c r="B225" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="8">
-        <v>0</v>
-      </c>
-      <c r="B226" s="9" t="s">
+    <row r="226" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>0</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="8">
-        <v>0</v>
-      </c>
-      <c r="B227" s="9" t="s">
+    <row r="227" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>0</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="8">
-        <v>0</v>
-      </c>
-      <c r="B228" s="9" t="s">
+    <row r="228" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>0</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8">
-        <v>0</v>
-      </c>
-      <c r="B229" s="9" t="s">
+    <row r="229" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>0</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5821,27 +6090,27 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="8">
-        <v>0</v>
-      </c>
-      <c r="B232" s="9" t="s">
+    <row r="232" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>0</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="8">
-        <v>0</v>
-      </c>
-      <c r="B233" s="9" t="s">
+    <row r="233" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>0</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="8">
-        <v>0</v>
-      </c>
-      <c r="B234" s="9" t="s">
+    <row r="234" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>0</v>
+      </c>
+      <c r="B234" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5853,11 +6122,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="8">
-        <v>0</v>
-      </c>
-      <c r="B236" s="9" t="s">
+    <row r="236" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>0</v>
+      </c>
+      <c r="B236" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5869,19 +6138,19 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8">
-        <v>0</v>
-      </c>
-      <c r="B238" s="9" t="s">
+    <row r="238" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>0</v>
+      </c>
+      <c r="B238" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="8">
-        <v>0</v>
-      </c>
-      <c r="B239" s="9" t="s">
+    <row r="239" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>0</v>
+      </c>
+      <c r="B239" s="7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5893,11 +6162,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8">
-        <v>0</v>
-      </c>
-      <c r="B241" s="9" t="s">
+    <row r="241" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>0</v>
+      </c>
+      <c r="B241" s="7" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5909,11 +6178,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="8">
-        <v>0</v>
-      </c>
-      <c r="B243" s="9" t="s">
+    <row r="243" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>0</v>
+      </c>
+      <c r="B243" s="7" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5925,11 +6194,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="8">
-        <v>0</v>
-      </c>
-      <c r="B245" s="9" t="s">
+    <row r="245" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>0</v>
+      </c>
+      <c r="B245" s="7" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5941,11 +6210,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="8">
-        <v>0</v>
-      </c>
-      <c r="B247" s="9" t="s">
+    <row r="247" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>0</v>
+      </c>
+      <c r="B247" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5973,51 +6242,51 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="8">
-        <v>0</v>
-      </c>
-      <c r="B251" s="9" t="s">
+    <row r="251" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
+        <v>0</v>
+      </c>
+      <c r="B251" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="8">
-        <v>0</v>
-      </c>
-      <c r="B252" s="9" t="s">
+    <row r="252" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
+        <v>0</v>
+      </c>
+      <c r="B252" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="8">
-        <v>0</v>
-      </c>
-      <c r="B253" s="9" t="s">
+    <row r="253" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <v>0</v>
+      </c>
+      <c r="B253" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="8">
-        <v>0</v>
-      </c>
-      <c r="B254" s="9" t="s">
+    <row r="254" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
+        <v>0</v>
+      </c>
+      <c r="B254" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="8">
-        <v>0</v>
-      </c>
-      <c r="B255" s="9" t="s">
+    <row r="255" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
+        <v>0</v>
+      </c>
+      <c r="B255" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8">
-        <v>0</v>
-      </c>
-      <c r="B256" s="9" t="s">
+    <row r="256" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <v>0</v>
+      </c>
+      <c r="B256" s="7" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6029,11 +6298,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="8">
-        <v>0</v>
-      </c>
-      <c r="B258" s="9" t="s">
+    <row r="258" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
+        <v>0</v>
+      </c>
+      <c r="B258" s="7" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6045,11 +6314,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="8">
-        <v>0</v>
-      </c>
-      <c r="B260" s="9" t="s">
+    <row r="260" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6">
+        <v>0</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6061,67 +6330,67 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8">
-        <v>0</v>
-      </c>
-      <c r="B262" s="9" t="s">
+    <row r="262" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="6">
+        <v>0</v>
+      </c>
+      <c r="B262" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8">
-        <v>0</v>
-      </c>
-      <c r="B263" s="9" t="s">
+    <row r="263" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
+        <v>0</v>
+      </c>
+      <c r="B263" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8">
-        <v>0</v>
-      </c>
-      <c r="B264" s="9" t="s">
+    <row r="264" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
+        <v>0</v>
+      </c>
+      <c r="B264" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8">
-        <v>0</v>
-      </c>
-      <c r="B265" s="9" t="s">
+    <row r="265" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
+        <v>0</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8">
-        <v>0</v>
-      </c>
-      <c r="B266" s="9" t="s">
+    <row r="266" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
+        <v>0</v>
+      </c>
+      <c r="B266" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="8">
-        <v>0</v>
-      </c>
-      <c r="B267" s="9" t="s">
+    <row r="267" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
+        <v>0</v>
+      </c>
+      <c r="B267" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8">
-        <v>0</v>
-      </c>
-      <c r="B268" s="9" t="s">
+    <row r="268" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="6">
+        <v>0</v>
+      </c>
+      <c r="B268" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8">
-        <v>0</v>
-      </c>
-      <c r="B269" s="9" t="s">
+    <row r="269" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
+        <v>0</v>
+      </c>
+      <c r="B269" s="7" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6133,27 +6402,27 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="8">
-        <v>0</v>
-      </c>
-      <c r="B271" s="9" t="s">
+    <row r="271" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="6">
+        <v>0</v>
+      </c>
+      <c r="B271" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="8">
-        <v>0</v>
-      </c>
-      <c r="B272" s="9" t="s">
+    <row r="272" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="6">
+        <v>0</v>
+      </c>
+      <c r="B272" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="8">
-        <v>0</v>
-      </c>
-      <c r="B273" s="9" t="s">
+    <row r="273" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="6">
+        <v>0</v>
+      </c>
+      <c r="B273" s="7" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6165,67 +6434,67 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="8">
-        <v>0</v>
-      </c>
-      <c r="B275" s="9" t="s">
+    <row r="275" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="6">
+        <v>0</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="8">
-        <v>0</v>
-      </c>
-      <c r="B276" s="9" t="s">
+    <row r="276" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <v>0</v>
+      </c>
+      <c r="B276" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="8">
-        <v>0</v>
-      </c>
-      <c r="B277" s="9" t="s">
+    <row r="277" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <v>0</v>
+      </c>
+      <c r="B277" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="8">
-        <v>0</v>
-      </c>
-      <c r="B278" s="9" t="s">
+    <row r="278" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>0</v>
+      </c>
+      <c r="B278" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8">
-        <v>0</v>
-      </c>
-      <c r="B279" s="9" t="s">
+    <row r="279" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
+        <v>0</v>
+      </c>
+      <c r="B279" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8">
-        <v>0</v>
-      </c>
-      <c r="B280" s="9" t="s">
+    <row r="280" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <v>0</v>
+      </c>
+      <c r="B280" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8">
-        <v>0</v>
-      </c>
-      <c r="B281" s="9" t="s">
+    <row r="281" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <v>0</v>
+      </c>
+      <c r="B281" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8">
-        <v>0</v>
-      </c>
-      <c r="B282" s="9" t="s">
+    <row r="282" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <v>0</v>
+      </c>
+      <c r="B282" s="7" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6237,27 +6506,27 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8">
-        <v>0</v>
-      </c>
-      <c r="B284" s="9" t="s">
+    <row r="284" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <v>0</v>
+      </c>
+      <c r="B284" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8">
-        <v>0</v>
-      </c>
-      <c r="B285" s="9" t="s">
+    <row r="285" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
+        <v>0</v>
+      </c>
+      <c r="B285" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
-        <v>0</v>
-      </c>
-      <c r="B286" s="9" t="s">
+    <row r="286" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
+        <v>0</v>
+      </c>
+      <c r="B286" s="7" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6269,43 +6538,43 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="8">
-        <v>0</v>
-      </c>
-      <c r="B288" s="9" t="s">
+    <row r="288" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="6">
+        <v>0</v>
+      </c>
+      <c r="B288" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8">
-        <v>0</v>
-      </c>
-      <c r="B289" s="9" t="s">
+    <row r="289" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="6">
+        <v>0</v>
+      </c>
+      <c r="B289" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8">
-        <v>0</v>
-      </c>
-      <c r="B290" s="9" t="s">
+    <row r="290" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="6">
+        <v>0</v>
+      </c>
+      <c r="B290" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="8">
-        <v>0</v>
-      </c>
-      <c r="B291" s="9" t="s">
+    <row r="291" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
+        <v>0</v>
+      </c>
+      <c r="B291" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="8">
-        <v>0</v>
-      </c>
-      <c r="B292" s="9" t="s">
+    <row r="292" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
+        <v>0</v>
+      </c>
+      <c r="B292" s="7" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6317,67 +6586,67 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8">
-        <v>0</v>
-      </c>
-      <c r="B294" s="9" t="s">
+    <row r="294" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
+        <v>0</v>
+      </c>
+      <c r="B294" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8">
-        <v>0</v>
-      </c>
-      <c r="B295" s="9" t="s">
+    <row r="295" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <v>0</v>
+      </c>
+      <c r="B295" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="8">
-        <v>0</v>
-      </c>
-      <c r="B296" s="9" t="s">
+    <row r="296" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
+        <v>0</v>
+      </c>
+      <c r="B296" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="8">
-        <v>0</v>
-      </c>
-      <c r="B297" s="9" t="s">
+    <row r="297" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
+        <v>0</v>
+      </c>
+      <c r="B297" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="8">
-        <v>0</v>
-      </c>
-      <c r="B298" s="9" t="s">
+    <row r="298" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
+        <v>0</v>
+      </c>
+      <c r="B298" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="8">
-        <v>0</v>
-      </c>
-      <c r="B299" s="9" t="s">
+    <row r="299" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
+        <v>0</v>
+      </c>
+      <c r="B299" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="8">
-        <v>0</v>
-      </c>
-      <c r="B300" s="9" t="s">
+    <row r="300" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
+        <v>0</v>
+      </c>
+      <c r="B300" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8">
-        <v>0</v>
-      </c>
-      <c r="B301" s="9" t="s">
+    <row r="301" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
+        <v>0</v>
+      </c>
+      <c r="B301" s="7" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6389,19 +6658,19 @@
         <v>652</v>
       </c>
     </row>
-    <row r="303" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="8">
-        <v>0</v>
-      </c>
-      <c r="B303" s="9" t="s">
+    <row r="303" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
+        <v>0</v>
+      </c>
+      <c r="B303" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="304" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8">
-        <v>0</v>
-      </c>
-      <c r="B304" s="9" t="s">
+    <row r="304" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <v>0</v>
+      </c>
+      <c r="B304" s="7" t="s">
         <v>654</v>
       </c>
     </row>
@@ -6413,35 +6682,35 @@
         <v>655</v>
       </c>
     </row>
-    <row r="306" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="8">
-        <v>0</v>
-      </c>
-      <c r="B306" s="9" t="s">
+    <row r="306" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>0</v>
+      </c>
+      <c r="B306" s="7" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="307" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="8">
-        <v>0</v>
-      </c>
-      <c r="B307" s="9" t="s">
+    <row r="307" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>0</v>
+      </c>
+      <c r="B307" s="7" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="8">
-        <v>0</v>
-      </c>
-      <c r="B308" s="9" t="s">
+    <row r="308" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>0</v>
+      </c>
+      <c r="B308" s="7" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="309" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="8">
-        <v>0</v>
-      </c>
-      <c r="B309" s="9" t="s">
+    <row r="309" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="6">
+        <v>0</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>659</v>
       </c>
     </row>
@@ -6453,35 +6722,35 @@
         <v>660</v>
       </c>
     </row>
-    <row r="311" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="8">
-        <v>0</v>
-      </c>
-      <c r="B311" s="9" t="s">
+    <row r="311" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="6">
+        <v>0</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="312" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="8">
-        <v>0</v>
-      </c>
-      <c r="B312" s="9" t="s">
+    <row r="312" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="6">
+        <v>0</v>
+      </c>
+      <c r="B312" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="313" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="8">
-        <v>0</v>
-      </c>
-      <c r="B313" s="9" t="s">
+    <row r="313" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="6">
+        <v>0</v>
+      </c>
+      <c r="B313" s="7" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="314" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="8">
-        <v>0</v>
-      </c>
-      <c r="B314" s="9" t="s">
+    <row r="314" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="6">
+        <v>0</v>
+      </c>
+      <c r="B314" s="7" t="s">
         <v>664</v>
       </c>
     </row>
@@ -6501,11 +6770,11 @@
         <v>666</v>
       </c>
     </row>
-    <row r="317" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="8">
-        <v>0</v>
-      </c>
-      <c r="B317" s="9" t="s">
+    <row r="317" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="6">
+        <v>0</v>
+      </c>
+      <c r="B317" s="7" t="s">
         <v>667</v>
       </c>
     </row>
@@ -6517,43 +6786,43 @@
         <v>668</v>
       </c>
     </row>
-    <row r="319" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="8">
-        <v>0</v>
-      </c>
-      <c r="B319" s="9" t="s">
+    <row r="319" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="6">
+        <v>0</v>
+      </c>
+      <c r="B319" s="7" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="320" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="8">
-        <v>0</v>
-      </c>
-      <c r="B320" s="9" t="s">
+    <row r="320" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>0</v>
+      </c>
+      <c r="B320" s="7" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="321" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="8">
-        <v>0</v>
-      </c>
-      <c r="B321" s="9" t="s">
+    <row r="321" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
+        <v>0</v>
+      </c>
+      <c r="B321" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="322" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="8">
-        <v>0</v>
-      </c>
-      <c r="B322" s="9" t="s">
+    <row r="322" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>0</v>
+      </c>
+      <c r="B322" s="7" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="323" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="8">
-        <v>0</v>
-      </c>
-      <c r="B323" s="9" t="s">
+    <row r="323" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="6">
+        <v>0</v>
+      </c>
+      <c r="B323" s="7" t="s">
         <v>673</v>
       </c>
     </row>
@@ -6565,59 +6834,59 @@
         <v>674</v>
       </c>
     </row>
-    <row r="325" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="8">
-        <v>0</v>
-      </c>
-      <c r="B325" s="9" t="s">
+    <row r="325" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="6">
+        <v>0</v>
+      </c>
+      <c r="B325" s="7" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="326" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="8">
-        <v>0</v>
-      </c>
-      <c r="B326" s="9" t="s">
+    <row r="326" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>0</v>
+      </c>
+      <c r="B326" s="7" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="8">
-        <v>0</v>
-      </c>
-      <c r="B327" s="9" t="s">
+    <row r="327" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="6">
+        <v>0</v>
+      </c>
+      <c r="B327" s="7" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="328" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="8">
-        <v>0</v>
-      </c>
-      <c r="B328" s="9" t="s">
+    <row r="328" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>0</v>
+      </c>
+      <c r="B328" s="7" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="329" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="8">
-        <v>0</v>
-      </c>
-      <c r="B329" s="9" t="s">
+    <row r="329" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="6">
+        <v>0</v>
+      </c>
+      <c r="B329" s="7" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="330" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="8">
-        <v>0</v>
-      </c>
-      <c r="B330" s="9" t="s">
+    <row r="330" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6">
+        <v>0</v>
+      </c>
+      <c r="B330" s="7" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="8">
-        <v>0</v>
-      </c>
-      <c r="B331" s="9" t="s">
+    <row r="331" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="6">
+        <v>0</v>
+      </c>
+      <c r="B331" s="7" t="s">
         <v>681</v>
       </c>
     </row>
@@ -6637,51 +6906,51 @@
         <v>683</v>
       </c>
     </row>
-    <row r="334" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="8">
-        <v>0</v>
-      </c>
-      <c r="B334" s="9" t="s">
+    <row r="334" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="6">
+        <v>0</v>
+      </c>
+      <c r="B334" s="7" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="335" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="8">
-        <v>0</v>
-      </c>
-      <c r="B335" s="9" t="s">
+    <row r="335" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="6">
+        <v>0</v>
+      </c>
+      <c r="B335" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="336" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="8">
-        <v>0</v>
-      </c>
-      <c r="B336" s="9" t="s">
+    <row r="336" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6">
+        <v>0</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="8">
-        <v>0</v>
-      </c>
-      <c r="B337" s="9" t="s">
+    <row r="337" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="6">
+        <v>0</v>
+      </c>
+      <c r="B337" s="7" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="338" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="8">
-        <v>0</v>
-      </c>
-      <c r="B338" s="9" t="s">
+    <row r="338" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>0</v>
+      </c>
+      <c r="B338" s="7" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="339" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="8">
-        <v>0</v>
-      </c>
-      <c r="B339" s="9" t="s">
+    <row r="339" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="6">
+        <v>0</v>
+      </c>
+      <c r="B339" s="7" t="s">
         <v>689</v>
       </c>
     </row>
@@ -6693,19 +6962,19 @@
         <v>690</v>
       </c>
     </row>
-    <row r="341" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="8">
-        <v>0</v>
-      </c>
-      <c r="B341" s="9" t="s">
+    <row r="341" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="6">
+        <v>0</v>
+      </c>
+      <c r="B341" s="7" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="8">
-        <v>0</v>
-      </c>
-      <c r="B342" s="9" t="s">
+    <row r="342" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="6">
+        <v>0</v>
+      </c>
+      <c r="B342" s="7" t="s">
         <v>692</v>
       </c>
     </row>
@@ -6717,11 +6986,11 @@
         <v>693</v>
       </c>
     </row>
-    <row r="344" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="8">
-        <v>0</v>
-      </c>
-      <c r="B344" s="9" t="s">
+    <row r="344" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="6">
+        <v>0</v>
+      </c>
+      <c r="B344" s="7" t="s">
         <v>694</v>
       </c>
     </row>
@@ -6733,11 +7002,11 @@
         <v>695</v>
       </c>
     </row>
-    <row r="346" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="8">
-        <v>0</v>
-      </c>
-      <c r="B346" s="9" t="s">
+    <row r="346" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="6">
+        <v>0</v>
+      </c>
+      <c r="B346" s="7" t="s">
         <v>696</v>
       </c>
     </row>
@@ -6757,51 +7026,51 @@
         <v>698</v>
       </c>
     </row>
-    <row r="349" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="8">
-        <v>0</v>
-      </c>
-      <c r="B349" s="9" t="s">
+    <row r="349" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="6">
+        <v>0</v>
+      </c>
+      <c r="B349" s="7" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="8">
-        <v>0</v>
-      </c>
-      <c r="B350" s="9" t="s">
+    <row r="350" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="6">
+        <v>0</v>
+      </c>
+      <c r="B350" s="7" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="351" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="8">
-        <v>0</v>
-      </c>
-      <c r="B351" s="9" t="s">
+    <row r="351" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="6">
+        <v>0</v>
+      </c>
+      <c r="B351" s="7" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="352" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="8">
-        <v>0</v>
-      </c>
-      <c r="B352" s="9" t="s">
+    <row r="352" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="6">
+        <v>0</v>
+      </c>
+      <c r="B352" s="7" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="353" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="8">
-        <v>0</v>
-      </c>
-      <c r="B353" s="9" t="s">
+    <row r="353" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="6">
+        <v>0</v>
+      </c>
+      <c r="B353" s="7" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="354" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="8">
-        <v>0</v>
-      </c>
-      <c r="B354" s="9" t="s">
+    <row r="354" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6">
+        <v>0</v>
+      </c>
+      <c r="B354" s="7" t="s">
         <v>704</v>
       </c>
     </row>
@@ -6821,83 +7090,83 @@
         <v>706</v>
       </c>
     </row>
-    <row r="357" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="8">
-        <v>0</v>
-      </c>
-      <c r="B357" s="9" t="s">
+    <row r="357" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="6">
+        <v>0</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="358" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="8">
-        <v>0</v>
-      </c>
-      <c r="B358" s="9" t="s">
+    <row r="358" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="6">
+        <v>0</v>
+      </c>
+      <c r="B358" s="7" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="359" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="8">
-        <v>0</v>
-      </c>
-      <c r="B359" s="9" t="s">
+    <row r="359" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="6">
+        <v>0</v>
+      </c>
+      <c r="B359" s="7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="360" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="8">
-        <v>0</v>
-      </c>
-      <c r="B360" s="9" t="s">
+    <row r="360" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="6">
+        <v>0</v>
+      </c>
+      <c r="B360" s="7" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="361" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="8">
-        <v>0</v>
-      </c>
-      <c r="B361" s="9" t="s">
+    <row r="361" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="6">
+        <v>0</v>
+      </c>
+      <c r="B361" s="7" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="362" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="8">
-        <v>0</v>
-      </c>
-      <c r="B362" s="9" t="s">
+    <row r="362" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="6">
+        <v>0</v>
+      </c>
+      <c r="B362" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="363" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="8">
-        <v>0</v>
-      </c>
-      <c r="B363" s="9" t="s">
+    <row r="363" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="6">
+        <v>0</v>
+      </c>
+      <c r="B363" s="7" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="364" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="8">
-        <v>0</v>
-      </c>
-      <c r="B364" s="9" t="s">
+    <row r="364" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
+        <v>0</v>
+      </c>
+      <c r="B364" s="7" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="365" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="8">
-        <v>0</v>
-      </c>
-      <c r="B365" s="9" t="s">
+    <row r="365" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="6">
+        <v>0</v>
+      </c>
+      <c r="B365" s="7" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="366" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="8">
-        <v>0</v>
-      </c>
-      <c r="B366" s="9" t="s">
+    <row r="366" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="6">
+        <v>0</v>
+      </c>
+      <c r="B366" s="7" t="s">
         <v>716</v>
       </c>
     </row>
@@ -6917,107 +7186,107 @@
         <v>718</v>
       </c>
     </row>
-    <row r="369" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="8">
-        <v>0</v>
-      </c>
-      <c r="B369" s="9" t="s">
+    <row r="369" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="6">
+        <v>0</v>
+      </c>
+      <c r="B369" s="7" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="370" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="8">
-        <v>0</v>
-      </c>
-      <c r="B370" s="9" t="s">
+    <row r="370" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="6">
+        <v>0</v>
+      </c>
+      <c r="B370" s="7" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="371" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="8">
-        <v>0</v>
-      </c>
-      <c r="B371" s="9" t="s">
+    <row r="371" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="6">
+        <v>0</v>
+      </c>
+      <c r="B371" s="7" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="372" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="8">
-        <v>0</v>
-      </c>
-      <c r="B372" s="9" t="s">
+    <row r="372" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="6">
+        <v>0</v>
+      </c>
+      <c r="B372" s="7" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="373" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="8">
-        <v>0</v>
-      </c>
-      <c r="B373" s="9" t="s">
+    <row r="373" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="6">
+        <v>0</v>
+      </c>
+      <c r="B373" s="7" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="374" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="8">
-        <v>0</v>
-      </c>
-      <c r="B374" s="9" t="s">
+    <row r="374" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="6">
+        <v>0</v>
+      </c>
+      <c r="B374" s="7" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="375" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="8">
-        <v>0</v>
-      </c>
-      <c r="B375" s="9" t="s">
+    <row r="375" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="6">
+        <v>0</v>
+      </c>
+      <c r="B375" s="7" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="376" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="8">
-        <v>0</v>
-      </c>
-      <c r="B376" s="9" t="s">
+    <row r="376" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="6">
+        <v>0</v>
+      </c>
+      <c r="B376" s="7" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="377" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="8">
-        <v>0</v>
-      </c>
-      <c r="B377" s="9" t="s">
+    <row r="377" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="6">
+        <v>0</v>
+      </c>
+      <c r="B377" s="7" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="378" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="8">
-        <v>0</v>
-      </c>
-      <c r="B378" s="9" t="s">
+    <row r="378" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="6">
+        <v>0</v>
+      </c>
+      <c r="B378" s="7" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="379" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="8">
-        <v>0</v>
-      </c>
-      <c r="B379" s="9" t="s">
+    <row r="379" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="6">
+        <v>0</v>
+      </c>
+      <c r="B379" s="7" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="380" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="8">
-        <v>0</v>
-      </c>
-      <c r="B380" s="9" t="s">
+    <row r="380" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="6">
+        <v>0</v>
+      </c>
+      <c r="B380" s="7" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="381" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="8">
-        <v>0</v>
-      </c>
-      <c r="B381" s="9" t="s">
+    <row r="381" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="6">
+        <v>0</v>
+      </c>
+      <c r="B381" s="7" t="s">
         <v>731</v>
       </c>
     </row>
@@ -7037,51 +7306,51 @@
         <v>733</v>
       </c>
     </row>
-    <row r="384" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="8">
-        <v>0</v>
-      </c>
-      <c r="B384" s="9" t="s">
+    <row r="384" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="6">
+        <v>0</v>
+      </c>
+      <c r="B384" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="385" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="8">
-        <v>0</v>
-      </c>
-      <c r="B385" s="9" t="s">
+    <row r="385" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="6">
+        <v>0</v>
+      </c>
+      <c r="B385" s="7" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="386" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="8">
-        <v>0</v>
-      </c>
-      <c r="B386" s="9" t="s">
+    <row r="386" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="6">
+        <v>0</v>
+      </c>
+      <c r="B386" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="387" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="8">
-        <v>0</v>
-      </c>
-      <c r="B387" s="9" t="s">
+    <row r="387" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="6">
+        <v>0</v>
+      </c>
+      <c r="B387" s="7" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="388" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="8">
-        <v>0</v>
-      </c>
-      <c r="B388" s="9" t="s">
+    <row r="388" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="6">
+        <v>0</v>
+      </c>
+      <c r="B388" s="7" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="389" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="8">
-        <v>0</v>
-      </c>
-      <c r="B389" s="9" t="s">
+    <row r="389" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="6">
+        <v>0</v>
+      </c>
+      <c r="B389" s="7" t="s">
         <v>739</v>
       </c>
     </row>
@@ -7109,35 +7378,35 @@
         <v>742</v>
       </c>
     </row>
-    <row r="393" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="8">
-        <v>0</v>
-      </c>
-      <c r="B393" s="9" t="s">
+    <row r="393" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="6">
+        <v>0</v>
+      </c>
+      <c r="B393" s="7" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="394" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="8">
-        <v>0</v>
-      </c>
-      <c r="B394" s="9" t="s">
+    <row r="394" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="6">
+        <v>0</v>
+      </c>
+      <c r="B394" s="7" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="395" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="8">
-        <v>0</v>
-      </c>
-      <c r="B395" s="9" t="s">
+    <row r="395" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="6">
+        <v>0</v>
+      </c>
+      <c r="B395" s="7" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="396" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="8">
-        <v>0</v>
-      </c>
-      <c r="B396" s="9" t="s">
+    <row r="396" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="6">
+        <v>0</v>
+      </c>
+      <c r="B396" s="7" t="s">
         <v>746</v>
       </c>
     </row>
@@ -7165,27 +7434,27 @@
         <v>749</v>
       </c>
     </row>
-    <row r="400" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="8">
-        <v>0</v>
-      </c>
-      <c r="B400" s="9" t="s">
+    <row r="400" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="6">
+        <v>0</v>
+      </c>
+      <c r="B400" s="7" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="401" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="8">
-        <v>0</v>
-      </c>
-      <c r="B401" s="9" t="s">
+    <row r="401" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="6">
+        <v>0</v>
+      </c>
+      <c r="B401" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="402" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="8">
-        <v>0</v>
-      </c>
-      <c r="B402" s="9" t="s">
+    <row r="402" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="6">
+        <v>0</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>752</v>
       </c>
     </row>
@@ -7205,27 +7474,27 @@
         <v>754</v>
       </c>
     </row>
-    <row r="405" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="8">
-        <v>0</v>
-      </c>
-      <c r="B405" s="9" t="s">
+    <row r="405" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="6">
+        <v>0</v>
+      </c>
+      <c r="B405" s="7" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="406" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="8">
-        <v>0</v>
-      </c>
-      <c r="B406" s="9" t="s">
+    <row r="406" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6">
+        <v>0</v>
+      </c>
+      <c r="B406" s="7" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="407" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="8">
-        <v>0</v>
-      </c>
-      <c r="B407" s="9" t="s">
+    <row r="407" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="6">
+        <v>0</v>
+      </c>
+      <c r="B407" s="7" t="s">
         <v>757</v>
       </c>
     </row>
@@ -7245,11 +7514,11 @@
         <v>759</v>
       </c>
     </row>
-    <row r="410" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="8">
-        <v>0</v>
-      </c>
-      <c r="B410" s="9" t="s">
+    <row r="410" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="6">
+        <v>0</v>
+      </c>
+      <c r="B410" s="7" t="s">
         <v>760</v>
       </c>
     </row>
@@ -7261,11 +7530,11 @@
         <v>761</v>
       </c>
     </row>
-    <row r="412" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="8">
-        <v>0</v>
-      </c>
-      <c r="B412" s="9" t="s">
+    <row r="412" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="6">
+        <v>0</v>
+      </c>
+      <c r="B412" s="7" t="s">
         <v>762</v>
       </c>
     </row>
@@ -7277,75 +7546,75 @@
         <v>763</v>
       </c>
     </row>
-    <row r="414" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="8">
-        <v>0</v>
-      </c>
-      <c r="B414" s="9" t="s">
+    <row r="414" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="6">
+        <v>0</v>
+      </c>
+      <c r="B414" s="7" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="415" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="8">
-        <v>0</v>
-      </c>
-      <c r="B415" s="9" t="s">
+    <row r="415" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="6">
+        <v>0</v>
+      </c>
+      <c r="B415" s="7" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="416" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="8">
-        <v>0</v>
-      </c>
-      <c r="B416" s="9" t="s">
+    <row r="416" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="6">
+        <v>0</v>
+      </c>
+      <c r="B416" s="7" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="417" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="8">
-        <v>0</v>
-      </c>
-      <c r="B417" s="9" t="s">
+    <row r="417" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="6">
+        <v>0</v>
+      </c>
+      <c r="B417" s="7" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="418" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="8">
-        <v>0</v>
-      </c>
-      <c r="B418" s="9" t="s">
+    <row r="418" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="6">
+        <v>0</v>
+      </c>
+      <c r="B418" s="7" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="419" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="8">
-        <v>0</v>
-      </c>
-      <c r="B419" s="9" t="s">
+    <row r="419" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="6">
+        <v>0</v>
+      </c>
+      <c r="B419" s="7" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="420" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="8">
-        <v>0</v>
-      </c>
-      <c r="B420" s="9" t="s">
+    <row r="420" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="6">
+        <v>0</v>
+      </c>
+      <c r="B420" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="421" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="8">
-        <v>0</v>
-      </c>
-      <c r="B421" s="9" t="s">
+    <row r="421" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="6">
+        <v>0</v>
+      </c>
+      <c r="B421" s="7" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="422" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="8">
-        <v>0</v>
-      </c>
-      <c r="B422" s="9" t="s">
+    <row r="422" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="6">
+        <v>0</v>
+      </c>
+      <c r="B422" s="7" t="s">
         <v>772</v>
       </c>
     </row>
@@ -7365,11 +7634,11 @@
         <v>774</v>
       </c>
     </row>
-    <row r="425" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="8">
-        <v>0</v>
-      </c>
-      <c r="B425" s="9" t="s">
+    <row r="425" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="6">
+        <v>0</v>
+      </c>
+      <c r="B425" s="7" t="s">
         <v>775</v>
       </c>
     </row>
@@ -7381,27 +7650,27 @@
         <v>776</v>
       </c>
     </row>
-    <row r="427" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="8">
-        <v>0</v>
-      </c>
-      <c r="B427" s="9" t="s">
+    <row r="427" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="6">
+        <v>0</v>
+      </c>
+      <c r="B427" s="7" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="428" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="8">
-        <v>0</v>
-      </c>
-      <c r="B428" s="9" t="s">
+    <row r="428" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="6">
+        <v>0</v>
+      </c>
+      <c r="B428" s="7" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="429" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="8">
-        <v>0</v>
-      </c>
-      <c r="B429" s="9" t="s">
+    <row r="429" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="6">
+        <v>0</v>
+      </c>
+      <c r="B429" s="7" t="s">
         <v>779</v>
       </c>
     </row>
@@ -7413,11 +7682,11 @@
         <v>780</v>
       </c>
     </row>
-    <row r="431" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="8">
-        <v>0</v>
-      </c>
-      <c r="B431" s="9" t="s">
+    <row r="431" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="6">
+        <v>0</v>
+      </c>
+      <c r="B431" s="7" t="s">
         <v>781</v>
       </c>
     </row>
@@ -7453,11 +7722,11 @@
         <v>785</v>
       </c>
     </row>
-    <row r="436" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="8">
-        <v>0</v>
-      </c>
-      <c r="B436" s="9" t="s">
+    <row r="436" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="6">
+        <v>0</v>
+      </c>
+      <c r="B436" s="7" t="s">
         <v>786</v>
       </c>
     </row>
@@ -7477,27 +7746,27 @@
         <v>788</v>
       </c>
     </row>
-    <row r="439" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="8">
-        <v>0</v>
-      </c>
-      <c r="B439" s="9" t="s">
+    <row r="439" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="6">
+        <v>0</v>
+      </c>
+      <c r="B439" s="7" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="440" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="8">
-        <v>0</v>
-      </c>
-      <c r="B440" s="9" t="s">
+    <row r="440" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="6">
+        <v>0</v>
+      </c>
+      <c r="B440" s="7" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="441" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="8">
-        <v>0</v>
-      </c>
-      <c r="B441" s="9" t="s">
+    <row r="441" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="6">
+        <v>0</v>
+      </c>
+      <c r="B441" s="7" t="s">
         <v>791</v>
       </c>
     </row>
@@ -7509,19 +7778,19 @@
         <v>792</v>
       </c>
     </row>
-    <row r="443" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="8">
-        <v>0</v>
-      </c>
-      <c r="B443" s="9" t="s">
+    <row r="443" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="6">
+        <v>0</v>
+      </c>
+      <c r="B443" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="444" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="8">
-        <v>0</v>
-      </c>
-      <c r="B444" s="9" t="s">
+    <row r="444" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="6">
+        <v>0</v>
+      </c>
+      <c r="B444" s="7" t="s">
         <v>794</v>
       </c>
     </row>
@@ -7541,11 +7810,11 @@
         <v>796</v>
       </c>
     </row>
-    <row r="447" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="8">
-        <v>0</v>
-      </c>
-      <c r="B447" s="9" t="s">
+    <row r="447" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="6">
+        <v>0</v>
+      </c>
+      <c r="B447" s="7" t="s">
         <v>797</v>
       </c>
     </row>
@@ -7565,35 +7834,35 @@
         <v>799</v>
       </c>
     </row>
-    <row r="450" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="8">
-        <v>0</v>
-      </c>
-      <c r="B450" s="9" t="s">
+    <row r="450" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="6">
+        <v>0</v>
+      </c>
+      <c r="B450" s="7" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="451" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="8">
-        <v>0</v>
-      </c>
-      <c r="B451" s="9" t="s">
+    <row r="451" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="6">
+        <v>0</v>
+      </c>
+      <c r="B451" s="7" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="452" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="8">
-        <v>0</v>
-      </c>
-      <c r="B452" s="9" t="s">
+    <row r="452" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="6">
+        <v>0</v>
+      </c>
+      <c r="B452" s="7" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="453" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="8">
-        <v>0</v>
-      </c>
-      <c r="B453" s="9" t="s">
+    <row r="453" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="6">
+        <v>0</v>
+      </c>
+      <c r="B453" s="7" t="s">
         <v>803</v>
       </c>
     </row>
@@ -7621,11 +7890,11 @@
         <v>806</v>
       </c>
     </row>
-    <row r="457" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="8">
-        <v>0</v>
-      </c>
-      <c r="B457" s="9" t="s">
+    <row r="457" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="6">
+        <v>0</v>
+      </c>
+      <c r="B457" s="7" t="s">
         <v>807</v>
       </c>
     </row>
@@ -7653,11 +7922,11 @@
         <v>810</v>
       </c>
     </row>
-    <row r="461" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="8">
-        <v>0</v>
-      </c>
-      <c r="B461" s="9" t="s">
+    <row r="461" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="6">
+        <v>0</v>
+      </c>
+      <c r="B461" s="7" t="s">
         <v>811</v>
       </c>
     </row>
@@ -7669,51 +7938,51 @@
         <v>812</v>
       </c>
     </row>
-    <row r="463" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="8">
-        <v>0</v>
-      </c>
-      <c r="B463" s="9" t="s">
+    <row r="463" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="6">
+        <v>0</v>
+      </c>
+      <c r="B463" s="7" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="464" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="8">
-        <v>0</v>
-      </c>
-      <c r="B464" s="9" t="s">
+    <row r="464" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="6">
+        <v>0</v>
+      </c>
+      <c r="B464" s="7" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="465" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="8">
-        <v>0</v>
-      </c>
-      <c r="B465" s="9" t="s">
+    <row r="465" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="6">
+        <v>0</v>
+      </c>
+      <c r="B465" s="7" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="466" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="8">
-        <v>0</v>
-      </c>
-      <c r="B466" s="9" t="s">
+    <row r="466" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="6">
+        <v>0</v>
+      </c>
+      <c r="B466" s="7" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="467" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="8">
-        <v>0</v>
-      </c>
-      <c r="B467" s="9" t="s">
+    <row r="467" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="6">
+        <v>0</v>
+      </c>
+      <c r="B467" s="7" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="468" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="8">
-        <v>0</v>
-      </c>
-      <c r="B468" s="9" t="s">
+    <row r="468" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="6">
+        <v>0</v>
+      </c>
+      <c r="B468" s="7" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7725,11 +7994,11 @@
         <v>819</v>
       </c>
     </row>
-    <row r="470" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="8">
-        <v>0</v>
-      </c>
-      <c r="B470" s="9" t="s">
+    <row r="470" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="6">
+        <v>0</v>
+      </c>
+      <c r="B470" s="7" t="s">
         <v>820</v>
       </c>
     </row>
@@ -7741,19 +8010,19 @@
         <v>821</v>
       </c>
     </row>
-    <row r="472" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="8">
-        <v>0</v>
-      </c>
-      <c r="B472" s="9" t="s">
+    <row r="472" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="6">
+        <v>0</v>
+      </c>
+      <c r="B472" s="7" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="473" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="8">
-        <v>0</v>
-      </c>
-      <c r="B473" s="9" t="s">
+    <row r="473" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="6">
+        <v>0</v>
+      </c>
+      <c r="B473" s="7" t="s">
         <v>823</v>
       </c>
     </row>
@@ -7765,59 +8034,59 @@
         <v>824</v>
       </c>
     </row>
-    <row r="475" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="8">
-        <v>0</v>
-      </c>
-      <c r="B475" s="9" t="s">
+    <row r="475" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="6">
+        <v>0</v>
+      </c>
+      <c r="B475" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="476" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="8">
-        <v>0</v>
-      </c>
-      <c r="B476" s="9" t="s">
+    <row r="476" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="6">
+        <v>0</v>
+      </c>
+      <c r="B476" s="7" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="477" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="8">
-        <v>0</v>
-      </c>
-      <c r="B477" s="9" t="s">
+    <row r="477" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="6">
+        <v>0</v>
+      </c>
+      <c r="B477" s="7" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="478" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="8">
-        <v>0</v>
-      </c>
-      <c r="B478" s="9" t="s">
+    <row r="478" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="6">
+        <v>0</v>
+      </c>
+      <c r="B478" s="7" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="479" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="8">
-        <v>0</v>
-      </c>
-      <c r="B479" s="9" t="s">
+    <row r="479" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="6">
+        <v>0</v>
+      </c>
+      <c r="B479" s="7" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="480" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="8">
-        <v>0</v>
-      </c>
-      <c r="B480" s="9" t="s">
+    <row r="480" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="6">
+        <v>0</v>
+      </c>
+      <c r="B480" s="7" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="481" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="8">
-        <v>0</v>
-      </c>
-      <c r="B481" s="9" t="s">
+    <row r="481" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="6">
+        <v>0</v>
+      </c>
+      <c r="B481" s="7" t="s">
         <v>831</v>
       </c>
     </row>
@@ -7829,27 +8098,27 @@
         <v>832</v>
       </c>
     </row>
-    <row r="483" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="8">
-        <v>0</v>
-      </c>
-      <c r="B483" s="9" t="s">
+    <row r="483" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="6">
+        <v>0</v>
+      </c>
+      <c r="B483" s="7" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="484" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="8">
-        <v>0</v>
-      </c>
-      <c r="B484" s="9" t="s">
+    <row r="484" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="6">
+        <v>0</v>
+      </c>
+      <c r="B484" s="7" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="485" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="8">
-        <v>0</v>
-      </c>
-      <c r="B485" s="9" t="s">
+    <row r="485" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="6">
+        <v>0</v>
+      </c>
+      <c r="B485" s="7" t="s">
         <v>835</v>
       </c>
     </row>
@@ -7861,27 +8130,27 @@
         <v>836</v>
       </c>
     </row>
-    <row r="487" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="8">
-        <v>0</v>
-      </c>
-      <c r="B487" s="9" t="s">
+    <row r="487" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="6">
+        <v>0</v>
+      </c>
+      <c r="B487" s="7" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="488" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="8">
-        <v>0</v>
-      </c>
-      <c r="B488" s="9" t="s">
+    <row r="488" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="6">
+        <v>0</v>
+      </c>
+      <c r="B488" s="7" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="489" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="8">
-        <v>0</v>
-      </c>
-      <c r="B489" s="9" t="s">
+    <row r="489" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="6">
+        <v>0</v>
+      </c>
+      <c r="B489" s="7" t="s">
         <v>839</v>
       </c>
     </row>
@@ -7893,19 +8162,19 @@
         <v>840</v>
       </c>
     </row>
-    <row r="491" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="8">
-        <v>0</v>
-      </c>
-      <c r="B491" s="9" t="s">
+    <row r="491" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="6">
+        <v>0</v>
+      </c>
+      <c r="B491" s="7" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="492" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="8">
-        <v>0</v>
-      </c>
-      <c r="B492" s="9" t="s">
+    <row r="492" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="6">
+        <v>0</v>
+      </c>
+      <c r="B492" s="7" t="s">
         <v>842</v>
       </c>
     </row>
@@ -7917,11 +8186,11 @@
         <v>843</v>
       </c>
     </row>
-    <row r="494" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="8">
-        <v>0</v>
-      </c>
-      <c r="B494" s="9" t="s">
+    <row r="494" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="6">
+        <v>0</v>
+      </c>
+      <c r="B494" s="7" t="s">
         <v>844</v>
       </c>
     </row>
@@ -7941,27 +8210,27 @@
         <v>846</v>
       </c>
     </row>
-    <row r="497" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="8">
-        <v>0</v>
-      </c>
-      <c r="B497" s="9" t="s">
+    <row r="497" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="6">
+        <v>0</v>
+      </c>
+      <c r="B497" s="7" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="498" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="8">
-        <v>0</v>
-      </c>
-      <c r="B498" s="9" t="s">
+    <row r="498" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="6">
+        <v>0</v>
+      </c>
+      <c r="B498" s="7" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="499" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="8">
-        <v>0</v>
-      </c>
-      <c r="B499" s="9" t="s">
+    <row r="499" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="6">
+        <v>0</v>
+      </c>
+      <c r="B499" s="7" t="s">
         <v>849</v>
       </c>
     </row>
@@ -7973,51 +8242,51 @@
         <v>850</v>
       </c>
     </row>
-    <row r="501" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="8">
-        <v>0</v>
-      </c>
-      <c r="B501" s="9" t="s">
+    <row r="501" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="6">
+        <v>0</v>
+      </c>
+      <c r="B501" s="7" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="502" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="8">
-        <v>0</v>
-      </c>
-      <c r="B502" s="9" t="s">
+    <row r="502" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="6">
+        <v>0</v>
+      </c>
+      <c r="B502" s="7" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="503" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="8">
-        <v>0</v>
-      </c>
-      <c r="B503" s="9" t="s">
+    <row r="503" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="6">
+        <v>0</v>
+      </c>
+      <c r="B503" s="7" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="504" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="8">
-        <v>0</v>
-      </c>
-      <c r="B504" s="9" t="s">
+    <row r="504" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="6">
+        <v>0</v>
+      </c>
+      <c r="B504" s="7" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="505" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="8">
-        <v>0</v>
-      </c>
-      <c r="B505" s="9" t="s">
+    <row r="505" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="6">
+        <v>0</v>
+      </c>
+      <c r="B505" s="7" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="506" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="8">
-        <v>0</v>
-      </c>
-      <c r="B506" s="9" t="s">
+    <row r="506" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="6">
+        <v>0</v>
+      </c>
+      <c r="B506" s="7" t="s">
         <v>856</v>
       </c>
     </row>
@@ -8029,11 +8298,11 @@
         <v>857</v>
       </c>
     </row>
-    <row r="508" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="8">
-        <v>0</v>
-      </c>
-      <c r="B508" s="9" t="s">
+    <row r="508" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="6">
+        <v>0</v>
+      </c>
+      <c r="B508" s="7" t="s">
         <v>858</v>
       </c>
     </row>
@@ -8045,83 +8314,83 @@
         <v>859</v>
       </c>
     </row>
-    <row r="510" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="8">
-        <v>0</v>
-      </c>
-      <c r="B510" s="9" t="s">
+    <row r="510" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="6">
+        <v>0</v>
+      </c>
+      <c r="B510" s="7" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="511" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="8">
-        <v>0</v>
-      </c>
-      <c r="B511" s="9" t="s">
+    <row r="511" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="6">
+        <v>0</v>
+      </c>
+      <c r="B511" s="7" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="512" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="8">
-        <v>0</v>
-      </c>
-      <c r="B512" s="9" t="s">
+    <row r="512" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="6">
+        <v>0</v>
+      </c>
+      <c r="B512" s="7" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="513" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="8">
-        <v>0</v>
-      </c>
-      <c r="B513" s="9" t="s">
+    <row r="513" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="6">
+        <v>0</v>
+      </c>
+      <c r="B513" s="7" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="514" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="8">
-        <v>0</v>
-      </c>
-      <c r="B514" s="9" t="s">
+    <row r="514" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="6">
+        <v>0</v>
+      </c>
+      <c r="B514" s="7" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="515" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="8">
-        <v>0</v>
-      </c>
-      <c r="B515" s="9" t="s">
+    <row r="515" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="6">
+        <v>0</v>
+      </c>
+      <c r="B515" s="7" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="516" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="8">
-        <v>0</v>
-      </c>
-      <c r="B516" s="9" t="s">
+    <row r="516" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="6">
+        <v>0</v>
+      </c>
+      <c r="B516" s="7" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="517" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="8">
-        <v>0</v>
-      </c>
-      <c r="B517" s="9" t="s">
+    <row r="517" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="6">
+        <v>0</v>
+      </c>
+      <c r="B517" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="518" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="8">
-        <v>0</v>
-      </c>
-      <c r="B518" s="9" t="s">
+    <row r="518" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="6">
+        <v>0</v>
+      </c>
+      <c r="B518" s="7" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="519" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="8">
-        <v>0</v>
-      </c>
-      <c r="B519" s="9" t="s">
+    <row r="519" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="6">
+        <v>0</v>
+      </c>
+      <c r="B519" s="7" t="s">
         <v>869</v>
       </c>
     </row>
@@ -8133,43 +8402,43 @@
         <v>870</v>
       </c>
     </row>
-    <row r="521" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="10">
-        <v>0</v>
-      </c>
-      <c r="B521" s="11" t="s">
+    <row r="521" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="8">
+        <v>0</v>
+      </c>
+      <c r="B521" s="9" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="522" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="10">
-        <v>0</v>
-      </c>
-      <c r="B522" s="11" t="s">
+    <row r="522" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="8">
+        <v>0</v>
+      </c>
+      <c r="B522" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="523" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="10">
-        <v>0</v>
-      </c>
-      <c r="B523" s="11" t="s">
+    <row r="523" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="8">
+        <v>0</v>
+      </c>
+      <c r="B523" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="524" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="10">
-        <v>0</v>
-      </c>
-      <c r="B524" s="11" t="s">
+    <row r="524" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="8">
+        <v>0</v>
+      </c>
+      <c r="B524" s="9" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="525" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="10">
-        <v>0</v>
-      </c>
-      <c r="B525" s="11" t="s">
+    <row r="525" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="8">
+        <v>0</v>
+      </c>
+      <c r="B525" s="9" t="s">
         <v>875</v>
       </c>
     </row>
@@ -8181,27 +8450,27 @@
         <v>876</v>
       </c>
     </row>
-    <row r="527" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="8">
-        <v>0</v>
-      </c>
-      <c r="B527" s="9" t="s">
+    <row r="527" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="6">
+        <v>0</v>
+      </c>
+      <c r="B527" s="7" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="528" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="8">
-        <v>0</v>
-      </c>
-      <c r="B528" s="9" t="s">
+    <row r="528" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="6">
+        <v>0</v>
+      </c>
+      <c r="B528" s="7" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="529" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="8">
-        <v>0</v>
-      </c>
-      <c r="B529" s="9" t="s">
+    <row r="529" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="6">
+        <v>0</v>
+      </c>
+      <c r="B529" s="7" t="s">
         <v>879</v>
       </c>
     </row>
@@ -8221,27 +8490,27 @@
         <v>881</v>
       </c>
     </row>
-    <row r="532" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="8">
-        <v>0</v>
-      </c>
-      <c r="B532" s="9" t="s">
+    <row r="532" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="6">
+        <v>0</v>
+      </c>
+      <c r="B532" s="7" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="533" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="8">
-        <v>0</v>
-      </c>
-      <c r="B533" s="9" t="s">
+    <row r="533" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="6">
+        <v>0</v>
+      </c>
+      <c r="B533" s="7" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="534" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="8">
-        <v>0</v>
-      </c>
-      <c r="B534" s="9" t="s">
+    <row r="534" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="6">
+        <v>0</v>
+      </c>
+      <c r="B534" s="7" t="s">
         <v>884</v>
       </c>
     </row>
@@ -8253,11 +8522,11 @@
         <v>885</v>
       </c>
     </row>
-    <row r="536" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="8">
-        <v>0</v>
-      </c>
-      <c r="B536" s="9" t="s">
+    <row r="536" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="6">
+        <v>0</v>
+      </c>
+      <c r="B536" s="7" t="s">
         <v>886</v>
       </c>
     </row>
@@ -8293,19 +8562,19 @@
         <v>890</v>
       </c>
     </row>
-    <row r="541" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="8">
-        <v>0</v>
-      </c>
-      <c r="B541" s="9" t="s">
+    <row r="541" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="6">
+        <v>0</v>
+      </c>
+      <c r="B541" s="7" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="542" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="8">
-        <v>0</v>
-      </c>
-      <c r="B542" s="9" t="s">
+    <row r="542" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="6">
+        <v>0</v>
+      </c>
+      <c r="B542" s="7" t="s">
         <v>892</v>
       </c>
     </row>
@@ -8317,27 +8586,27 @@
         <v>893</v>
       </c>
     </row>
-    <row r="544" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="8">
-        <v>0</v>
-      </c>
-      <c r="B544" s="9" t="s">
+    <row r="544" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="6">
+        <v>0</v>
+      </c>
+      <c r="B544" s="7" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="545" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="8">
-        <v>0</v>
-      </c>
-      <c r="B545" s="9" t="s">
+    <row r="545" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="6">
+        <v>0</v>
+      </c>
+      <c r="B545" s="7" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="546" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="8">
-        <v>0</v>
-      </c>
-      <c r="B546" s="9" t="s">
+    <row r="546" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="6">
+        <v>0</v>
+      </c>
+      <c r="B546" s="7" t="s">
         <v>896</v>
       </c>
     </row>
@@ -8357,19 +8626,19 @@
         <v>898</v>
       </c>
     </row>
-    <row r="549" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="8">
-        <v>0</v>
-      </c>
-      <c r="B549" s="9" t="s">
+    <row r="549" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="6">
+        <v>0</v>
+      </c>
+      <c r="B549" s="7" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="550" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="8">
-        <v>0</v>
-      </c>
-      <c r="B550" s="9" t="s">
+    <row r="550" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="6">
+        <v>0</v>
+      </c>
+      <c r="B550" s="7" t="s">
         <v>900</v>
       </c>
     </row>
@@ -8381,27 +8650,27 @@
         <v>901</v>
       </c>
     </row>
-    <row r="552" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="8">
-        <v>0</v>
-      </c>
-      <c r="B552" s="9" t="s">
+    <row r="552" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="6">
+        <v>0</v>
+      </c>
+      <c r="B552" s="7" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="553" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="8">
-        <v>0</v>
-      </c>
-      <c r="B553" s="9" t="s">
+    <row r="553" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="6">
+        <v>0</v>
+      </c>
+      <c r="B553" s="7" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="554" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="8">
-        <v>0</v>
-      </c>
-      <c r="B554" s="9" t="s">
+    <row r="554" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="6">
+        <v>0</v>
+      </c>
+      <c r="B554" s="7" t="s">
         <v>904</v>
       </c>
     </row>
@@ -8413,11 +8682,11 @@
         <v>905</v>
       </c>
     </row>
-    <row r="556" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="8">
-        <v>0</v>
-      </c>
-      <c r="B556" s="9" t="s">
+    <row r="556" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="6">
+        <v>0</v>
+      </c>
+      <c r="B556" s="7" t="s">
         <v>906</v>
       </c>
     </row>
@@ -8429,35 +8698,35 @@
         <v>907</v>
       </c>
     </row>
-    <row r="558" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="8">
-        <v>0</v>
-      </c>
-      <c r="B558" s="9" t="s">
+    <row r="558" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="6">
+        <v>0</v>
+      </c>
+      <c r="B558" s="7" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="559" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="8">
-        <v>0</v>
-      </c>
-      <c r="B559" s="9" t="s">
+    <row r="559" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="6">
+        <v>0</v>
+      </c>
+      <c r="B559" s="7" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="560" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="8">
-        <v>0</v>
-      </c>
-      <c r="B560" s="9" t="s">
+    <row r="560" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="6">
+        <v>0</v>
+      </c>
+      <c r="B560" s="7" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="561" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="8">
-        <v>0</v>
-      </c>
-      <c r="B561" s="9" t="s">
+    <row r="561" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="6">
+        <v>0</v>
+      </c>
+      <c r="B561" s="7" t="s">
         <v>911</v>
       </c>
     </row>
@@ -8469,11 +8738,11 @@
         <v>912</v>
       </c>
     </row>
-    <row r="563" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="8">
-        <v>0</v>
-      </c>
-      <c r="B563" s="9" t="s">
+    <row r="563" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="6">
+        <v>0</v>
+      </c>
+      <c r="B563" s="7" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8485,19 +8754,19 @@
         <v>914</v>
       </c>
     </row>
-    <row r="565" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="8">
-        <v>0</v>
-      </c>
-      <c r="B565" s="9" t="s">
+    <row r="565" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="6">
+        <v>0</v>
+      </c>
+      <c r="B565" s="7" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="566" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="8">
-        <v>0</v>
-      </c>
-      <c r="B566" s="9" t="s">
+    <row r="566" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="6">
+        <v>0</v>
+      </c>
+      <c r="B566" s="7" t="s">
         <v>916</v>
       </c>
     </row>
@@ -8509,35 +8778,35 @@
         <v>917</v>
       </c>
     </row>
-    <row r="568" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="8">
-        <v>0</v>
-      </c>
-      <c r="B568" s="9" t="s">
+    <row r="568" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="6">
+        <v>0</v>
+      </c>
+      <c r="B568" s="7" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="569" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="8">
-        <v>0</v>
-      </c>
-      <c r="B569" s="9" t="s">
+    <row r="569" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="6">
+        <v>0</v>
+      </c>
+      <c r="B569" s="7" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="570" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="8">
-        <v>0</v>
-      </c>
-      <c r="B570" s="9" t="s">
+    <row r="570" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="6">
+        <v>0</v>
+      </c>
+      <c r="B570" s="7" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="571" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="8">
-        <v>0</v>
-      </c>
-      <c r="B571" s="9" t="s">
+    <row r="571" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="6">
+        <v>0</v>
+      </c>
+      <c r="B571" s="7" t="s">
         <v>921</v>
       </c>
     </row>
@@ -8549,59 +8818,59 @@
         <v>922</v>
       </c>
     </row>
-    <row r="573" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="8">
-        <v>0</v>
-      </c>
-      <c r="B573" s="9" t="s">
+    <row r="573" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="6">
+        <v>0</v>
+      </c>
+      <c r="B573" s="7" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="574" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="8">
-        <v>0</v>
-      </c>
-      <c r="B574" s="9" t="s">
+    <row r="574" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="6">
+        <v>0</v>
+      </c>
+      <c r="B574" s="7" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="575" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="8">
-        <v>0</v>
-      </c>
-      <c r="B575" s="9" t="s">
+    <row r="575" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="6">
+        <v>0</v>
+      </c>
+      <c r="B575" s="7" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="576" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="8">
-        <v>0</v>
-      </c>
-      <c r="B576" s="9" t="s">
+    <row r="576" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="6">
+        <v>0</v>
+      </c>
+      <c r="B576" s="7" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="577" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="8">
-        <v>0</v>
-      </c>
-      <c r="B577" s="9" t="s">
+    <row r="577" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="6">
+        <v>0</v>
+      </c>
+      <c r="B577" s="7" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="578" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="8">
-        <v>0</v>
-      </c>
-      <c r="B578" s="9" t="s">
+    <row r="578" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="6">
+        <v>0</v>
+      </c>
+      <c r="B578" s="7" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="579" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="8">
-        <v>0</v>
-      </c>
-      <c r="B579" s="9" t="s">
+    <row r="579" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="6">
+        <v>0</v>
+      </c>
+      <c r="B579" s="7" t="s">
         <v>929</v>
       </c>
     </row>
@@ -8613,19 +8882,19 @@
         <v>930</v>
       </c>
     </row>
-    <row r="581" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="8">
-        <v>0</v>
-      </c>
-      <c r="B581" s="9" t="s">
+    <row r="581" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="6">
+        <v>0</v>
+      </c>
+      <c r="B581" s="7" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="582" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="8">
-        <v>0</v>
-      </c>
-      <c r="B582" s="9" t="s">
+    <row r="582" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="6">
+        <v>0</v>
+      </c>
+      <c r="B582" s="7" t="s">
         <v>932</v>
       </c>
     </row>
@@ -8637,67 +8906,67 @@
         <v>933</v>
       </c>
     </row>
-    <row r="584" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="8">
-        <v>0</v>
-      </c>
-      <c r="B584" s="9" t="s">
+    <row r="584" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="6">
+        <v>0</v>
+      </c>
+      <c r="B584" s="7" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="585" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="8">
-        <v>0</v>
-      </c>
-      <c r="B585" s="9" t="s">
+    <row r="585" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="6">
+        <v>0</v>
+      </c>
+      <c r="B585" s="7" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="586" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="8">
-        <v>0</v>
-      </c>
-      <c r="B586" s="9" t="s">
+    <row r="586" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="6">
+        <v>0</v>
+      </c>
+      <c r="B586" s="7" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="587" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="8">
-        <v>0</v>
-      </c>
-      <c r="B587" s="9" t="s">
+    <row r="587" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="6">
+        <v>0</v>
+      </c>
+      <c r="B587" s="7" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="588" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="8">
-        <v>0</v>
-      </c>
-      <c r="B588" s="9" t="s">
+    <row r="588" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="6">
+        <v>0</v>
+      </c>
+      <c r="B588" s="7" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="589" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="8">
-        <v>0</v>
-      </c>
-      <c r="B589" s="9" t="s">
+    <row r="589" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="6">
+        <v>0</v>
+      </c>
+      <c r="B589" s="7" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="590" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="8">
-        <v>0</v>
-      </c>
-      <c r="B590" s="9" t="s">
+    <row r="590" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="6">
+        <v>0</v>
+      </c>
+      <c r="B590" s="7" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="591" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="8">
-        <v>0</v>
-      </c>
-      <c r="B591" s="9" t="s">
+    <row r="591" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="6">
+        <v>0</v>
+      </c>
+      <c r="B591" s="7" t="s">
         <v>941</v>
       </c>
     </row>
@@ -8725,11 +8994,11 @@
         <v>944</v>
       </c>
     </row>
-    <row r="595" spans="1:2" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="8">
-        <v>0</v>
-      </c>
-      <c r="B595" s="9" t="s">
+    <row r="595" spans="1:2" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="6">
+        <v>0</v>
+      </c>
+      <c r="B595" s="7" t="s">
         <v>945</v>
       </c>
     </row>
@@ -8749,59 +9018,59 @@
         <v>947</v>
       </c>
     </row>
-    <row r="598" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="8">
-        <v>0</v>
-      </c>
-      <c r="B598" s="9" t="s">
+    <row r="598" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="6">
+        <v>0</v>
+      </c>
+      <c r="B598" s="7" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="599" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="8">
-        <v>0</v>
-      </c>
-      <c r="B599" s="9" t="s">
+    <row r="599" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="6">
+        <v>0</v>
+      </c>
+      <c r="B599" s="7" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="600" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="8">
-        <v>0</v>
-      </c>
-      <c r="B600" s="9" t="s">
+    <row r="600" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="6">
+        <v>0</v>
+      </c>
+      <c r="B600" s="7" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="601" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="8">
-        <v>0</v>
-      </c>
-      <c r="B601" s="9" t="s">
+    <row r="601" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="6">
+        <v>0</v>
+      </c>
+      <c r="B601" s="7" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="602" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="8">
-        <v>0</v>
-      </c>
-      <c r="B602" s="9" t="s">
+    <row r="602" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="6">
+        <v>0</v>
+      </c>
+      <c r="B602" s="7" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="603" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="8">
-        <v>0</v>
-      </c>
-      <c r="B603" s="9" t="s">
+    <row r="603" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="6">
+        <v>0</v>
+      </c>
+      <c r="B603" s="7" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="604" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="8">
-        <v>0</v>
-      </c>
-      <c r="B604" s="9" t="s">
+    <row r="604" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="6">
+        <v>0</v>
+      </c>
+      <c r="B604" s="7" t="s">
         <v>954</v>
       </c>
     </row>
@@ -8821,11 +9090,11 @@
         <v>956</v>
       </c>
     </row>
-    <row r="607" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="8">
-        <v>0</v>
-      </c>
-      <c r="B607" s="9" t="s">
+    <row r="607" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="6">
+        <v>0</v>
+      </c>
+      <c r="B607" s="7" t="s">
         <v>957</v>
       </c>
     </row>
@@ -8837,67 +9106,67 @@
         <v>958</v>
       </c>
     </row>
-    <row r="609" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="8">
-        <v>0</v>
-      </c>
-      <c r="B609" s="9" t="s">
+    <row r="609" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="6">
+        <v>0</v>
+      </c>
+      <c r="B609" s="7" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="610" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="8">
-        <v>0</v>
-      </c>
-      <c r="B610" s="9" t="s">
+    <row r="610" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="6">
+        <v>0</v>
+      </c>
+      <c r="B610" s="7" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="611" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="8">
-        <v>0</v>
-      </c>
-      <c r="B611" s="9" t="s">
+    <row r="611" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="6">
+        <v>0</v>
+      </c>
+      <c r="B611" s="7" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="612" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="8">
-        <v>0</v>
-      </c>
-      <c r="B612" s="9" t="s">
+    <row r="612" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="6">
+        <v>0</v>
+      </c>
+      <c r="B612" s="7" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="613" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="8">
-        <v>0</v>
-      </c>
-      <c r="B613" s="9" t="s">
+    <row r="613" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="6">
+        <v>0</v>
+      </c>
+      <c r="B613" s="7" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="614" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="8">
-        <v>0</v>
-      </c>
-      <c r="B614" s="9" t="s">
+    <row r="614" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="6">
+        <v>0</v>
+      </c>
+      <c r="B614" s="7" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="615" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="8">
-        <v>0</v>
-      </c>
-      <c r="B615" s="9" t="s">
+    <row r="615" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="6">
+        <v>0</v>
+      </c>
+      <c r="B615" s="7" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="616" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="8">
-        <v>0</v>
-      </c>
-      <c r="B616" s="9" t="s">
+    <row r="616" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="6">
+        <v>0</v>
+      </c>
+      <c r="B616" s="7" t="s">
         <v>966</v>
       </c>
     </row>
@@ -8909,19 +9178,19 @@
         <v>967</v>
       </c>
     </row>
-    <row r="618" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="8">
-        <v>0</v>
-      </c>
-      <c r="B618" s="9" t="s">
+    <row r="618" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="6">
+        <v>0</v>
+      </c>
+      <c r="B618" s="7" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="619" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="8">
-        <v>0</v>
-      </c>
-      <c r="B619" s="9" t="s">
+    <row r="619" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="6">
+        <v>0</v>
+      </c>
+      <c r="B619" s="7" t="s">
         <v>969</v>
       </c>
     </row>
@@ -8941,27 +9210,27 @@
         <v>971</v>
       </c>
     </row>
-    <row r="622" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="8">
-        <v>0</v>
-      </c>
-      <c r="B622" s="9" t="s">
+    <row r="622" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="6">
+        <v>0</v>
+      </c>
+      <c r="B622" s="7" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="623" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="8">
-        <v>0</v>
-      </c>
-      <c r="B623" s="9" t="s">
+    <row r="623" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="6">
+        <v>0</v>
+      </c>
+      <c r="B623" s="7" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="624" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="8">
-        <v>0</v>
-      </c>
-      <c r="B624" s="9" t="s">
+    <row r="624" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="6">
+        <v>0</v>
+      </c>
+      <c r="B624" s="7" t="s">
         <v>974</v>
       </c>
     </row>
@@ -8973,19 +9242,19 @@
         <v>975</v>
       </c>
     </row>
-    <row r="626" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="8">
-        <v>0</v>
-      </c>
-      <c r="B626" s="9" t="s">
+    <row r="626" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="6">
+        <v>0</v>
+      </c>
+      <c r="B626" s="7" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="627" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="8">
-        <v>0</v>
-      </c>
-      <c r="B627" s="9" t="s">
+    <row r="627" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="6">
+        <v>0</v>
+      </c>
+      <c r="B627" s="7" t="s">
         <v>977</v>
       </c>
     </row>
@@ -8997,35 +9266,35 @@
         <v>978</v>
       </c>
     </row>
-    <row r="629" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="8">
-        <v>0</v>
-      </c>
-      <c r="B629" s="9" t="s">
+    <row r="629" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="6">
+        <v>0</v>
+      </c>
+      <c r="B629" s="7" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="630" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="8">
-        <v>0</v>
-      </c>
-      <c r="B630" s="9" t="s">
+    <row r="630" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="6">
+        <v>0</v>
+      </c>
+      <c r="B630" s="7" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="631" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="8">
-        <v>0</v>
-      </c>
-      <c r="B631" s="9" t="s">
+    <row r="631" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="6">
+        <v>0</v>
+      </c>
+      <c r="B631" s="7" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="632" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="8">
-        <v>0</v>
-      </c>
-      <c r="B632" s="9" t="s">
+    <row r="632" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="6">
+        <v>0</v>
+      </c>
+      <c r="B632" s="7" t="s">
         <v>982</v>
       </c>
     </row>
@@ -9037,51 +9306,51 @@
         <v>983</v>
       </c>
     </row>
-    <row r="634" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="8">
-        <v>0</v>
-      </c>
-      <c r="B634" s="9" t="s">
+    <row r="634" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="6">
+        <v>0</v>
+      </c>
+      <c r="B634" s="7" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="635" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="8">
-        <v>0</v>
-      </c>
-      <c r="B635" s="9" t="s">
+    <row r="635" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="6">
+        <v>0</v>
+      </c>
+      <c r="B635" s="7" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="636" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="8">
-        <v>0</v>
-      </c>
-      <c r="B636" s="9" t="s">
+    <row r="636" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="6">
+        <v>0</v>
+      </c>
+      <c r="B636" s="7" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="637" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="8">
-        <v>0</v>
-      </c>
-      <c r="B637" s="9" t="s">
+    <row r="637" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="6">
+        <v>0</v>
+      </c>
+      <c r="B637" s="7" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="638" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="8">
-        <v>0</v>
-      </c>
-      <c r="B638" s="9" t="s">
+    <row r="638" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="6">
+        <v>0</v>
+      </c>
+      <c r="B638" s="7" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="639" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="8">
-        <v>0</v>
-      </c>
-      <c r="B639" s="9" t="s">
+    <row r="639" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="6">
+        <v>0</v>
+      </c>
+      <c r="B639" s="7" t="s">
         <v>989</v>
       </c>
     </row>
@@ -9101,75 +9370,75 @@
         <v>991</v>
       </c>
     </row>
-    <row r="642" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="8">
-        <v>0</v>
-      </c>
-      <c r="B642" s="9" t="s">
+    <row r="642" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="6">
+        <v>0</v>
+      </c>
+      <c r="B642" s="7" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="643" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="8">
-        <v>0</v>
-      </c>
-      <c r="B643" s="9" t="s">
+    <row r="643" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="6">
+        <v>0</v>
+      </c>
+      <c r="B643" s="7" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="644" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="8">
-        <v>0</v>
-      </c>
-      <c r="B644" s="9" t="s">
+    <row r="644" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="6">
+        <v>0</v>
+      </c>
+      <c r="B644" s="7" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="645" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="8">
-        <v>0</v>
-      </c>
-      <c r="B645" s="9" t="s">
+    <row r="645" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="6">
+        <v>0</v>
+      </c>
+      <c r="B645" s="7" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="646" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="8">
-        <v>0</v>
-      </c>
-      <c r="B646" s="9" t="s">
+    <row r="646" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="6">
+        <v>0</v>
+      </c>
+      <c r="B646" s="7" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="647" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="8">
-        <v>0</v>
-      </c>
-      <c r="B647" s="9" t="s">
+    <row r="647" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="6">
+        <v>0</v>
+      </c>
+      <c r="B647" s="7" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="648" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="8">
-        <v>0</v>
-      </c>
-      <c r="B648" s="9" t="s">
+    <row r="648" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="6">
+        <v>0</v>
+      </c>
+      <c r="B648" s="7" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="649" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="8">
-        <v>0</v>
-      </c>
-      <c r="B649" s="9" t="s">
+    <row r="649" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="6">
+        <v>0</v>
+      </c>
+      <c r="B649" s="7" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="650" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="8">
-        <v>0</v>
-      </c>
-      <c r="B650" s="9" t="s">
+    <row r="650" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="6">
+        <v>0</v>
+      </c>
+      <c r="B650" s="7" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -9181,51 +9450,51 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="652" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="8">
-        <v>0</v>
-      </c>
-      <c r="B652" s="9" t="s">
+    <row r="652" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="6">
+        <v>0</v>
+      </c>
+      <c r="B652" s="7" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="653" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="8">
-        <v>0</v>
-      </c>
-      <c r="B653" s="9" t="s">
+    <row r="653" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="6">
+        <v>0</v>
+      </c>
+      <c r="B653" s="7" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="654" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="8">
-        <v>0</v>
-      </c>
-      <c r="B654" s="9" t="s">
+    <row r="654" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="6">
+        <v>0</v>
+      </c>
+      <c r="B654" s="7" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="655" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="8">
-        <v>0</v>
-      </c>
-      <c r="B655" s="9" t="s">
+    <row r="655" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="6">
+        <v>0</v>
+      </c>
+      <c r="B655" s="7" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="656" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="8">
-        <v>0</v>
-      </c>
-      <c r="B656" s="9" t="s">
+    <row r="656" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="6">
+        <v>0</v>
+      </c>
+      <c r="B656" s="7" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="657" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="8">
-        <v>0</v>
-      </c>
-      <c r="B657" s="9" t="s">
+    <row r="657" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="6">
+        <v>0</v>
+      </c>
+      <c r="B657" s="7" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -9237,27 +9506,27 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="659" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="8">
-        <v>0</v>
-      </c>
-      <c r="B659" s="9" t="s">
+    <row r="659" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="6">
+        <v>0</v>
+      </c>
+      <c r="B659" s="7" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="660" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="8">
-        <v>0</v>
-      </c>
-      <c r="B660" s="9" t="s">
+    <row r="660" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="6">
+        <v>0</v>
+      </c>
+      <c r="B660" s="7" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="661" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="8">
-        <v>0</v>
-      </c>
-      <c r="B661" s="9" t="s">
+    <row r="661" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="6">
+        <v>0</v>
+      </c>
+      <c r="B661" s="7" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -9269,19 +9538,19 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="663" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="8">
-        <v>0</v>
-      </c>
-      <c r="B663" s="9" t="s">
+    <row r="663" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="6">
+        <v>0</v>
+      </c>
+      <c r="B663" s="7" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="664" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="8">
-        <v>0</v>
-      </c>
-      <c r="B664" s="9" t="s">
+    <row r="664" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="6">
+        <v>0</v>
+      </c>
+      <c r="B664" s="7" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -9293,27 +9562,27 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="666" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="8">
-        <v>0</v>
-      </c>
-      <c r="B666" s="9" t="s">
+    <row r="666" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="6">
+        <v>0</v>
+      </c>
+      <c r="B666" s="7" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="667" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="8">
-        <v>0</v>
-      </c>
-      <c r="B667" s="9" t="s">
+    <row r="667" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="6">
+        <v>0</v>
+      </c>
+      <c r="B667" s="7" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="668" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="8">
-        <v>0</v>
-      </c>
-      <c r="B668" s="9" t="s">
+    <row r="668" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="6">
+        <v>0</v>
+      </c>
+      <c r="B668" s="7" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -9325,11 +9594,11 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="670" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="8">
-        <v>0</v>
-      </c>
-      <c r="B670" s="9" t="s">
+    <row r="670" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="6">
+        <v>0</v>
+      </c>
+      <c r="B670" s="7" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -9341,67 +9610,67 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="672" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="8">
-        <v>0</v>
-      </c>
-      <c r="B672" s="9" t="s">
+    <row r="672" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="6">
+        <v>0</v>
+      </c>
+      <c r="B672" s="7" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="673" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="8">
-        <v>0</v>
-      </c>
-      <c r="B673" s="9" t="s">
+    <row r="673" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="6">
+        <v>0</v>
+      </c>
+      <c r="B673" s="7" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="674" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="8">
-        <v>0</v>
-      </c>
-      <c r="B674" s="9" t="s">
+    <row r="674" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="6">
+        <v>0</v>
+      </c>
+      <c r="B674" s="7" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="675" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="8">
-        <v>0</v>
-      </c>
-      <c r="B675" s="9" t="s">
+    <row r="675" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="6">
+        <v>0</v>
+      </c>
+      <c r="B675" s="7" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="676" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="8">
-        <v>0</v>
-      </c>
-      <c r="B676" s="9" t="s">
+    <row r="676" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="6">
+        <v>0</v>
+      </c>
+      <c r="B676" s="7" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="677" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="8">
-        <v>0</v>
-      </c>
-      <c r="B677" s="9" t="s">
+    <row r="677" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="6">
+        <v>0</v>
+      </c>
+      <c r="B677" s="7" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="678" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="8">
-        <v>0</v>
-      </c>
-      <c r="B678" s="9" t="s">
+    <row r="678" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="6">
+        <v>0</v>
+      </c>
+      <c r="B678" s="7" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="679" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="8">
-        <v>0</v>
-      </c>
-      <c r="B679" s="9" t="s">
+    <row r="679" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="6">
+        <v>0</v>
+      </c>
+      <c r="B679" s="7" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -9413,43 +9682,43 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="681" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="8">
-        <v>0</v>
-      </c>
-      <c r="B681" s="9" t="s">
+    <row r="681" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="6">
+        <v>0</v>
+      </c>
+      <c r="B681" s="7" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="682" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="8">
-        <v>0</v>
-      </c>
-      <c r="B682" s="9" t="s">
+    <row r="682" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="6">
+        <v>0</v>
+      </c>
+      <c r="B682" s="7" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="683" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="8">
-        <v>0</v>
-      </c>
-      <c r="B683" s="9" t="s">
+    <row r="683" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="6">
+        <v>0</v>
+      </c>
+      <c r="B683" s="7" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="684" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="8">
-        <v>0</v>
-      </c>
-      <c r="B684" s="9" t="s">
+    <row r="684" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="6">
+        <v>0</v>
+      </c>
+      <c r="B684" s="7" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="685" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="8">
-        <v>0</v>
-      </c>
-      <c r="B685" s="9" t="s">
+    <row r="685" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="6">
+        <v>0</v>
+      </c>
+      <c r="B685" s="7" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -9461,11 +9730,11 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="687" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="8">
-        <v>0</v>
-      </c>
-      <c r="B687" s="9" t="s">
+    <row r="687" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="6">
+        <v>0</v>
+      </c>
+      <c r="B687" s="7" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -9477,20 +9746,496 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="689" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="8">
-        <v>0</v>
-      </c>
-      <c r="B689" s="9" t="s">
+    <row r="689" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="6">
+        <v>0</v>
+      </c>
+      <c r="B689" s="7" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="690" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="8">
-        <v>0</v>
-      </c>
-      <c r="B690" s="9" t="s">
+    <row r="690" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="6">
+        <v>0</v>
+      </c>
+      <c r="B690" s="7" t="s">
         <v>1040</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="4">
+        <v>1</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="4">
+        <v>1</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="4">
+        <v>1</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="4">
+        <v>1</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="4">
+        <v>1</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="4">
+        <v>1</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="4">
+        <v>1</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="4">
+        <v>1</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="4">
+        <v>1</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="4">
+        <v>1</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="4">
+        <v>1</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="4">
+        <v>1</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="4">
+        <v>1</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="4">
+        <v>1</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="4">
+        <v>1</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="4">
+        <v>1</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="4">
+        <v>1</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="4">
+        <v>1</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="4">
+        <v>1</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="4">
+        <v>1</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="4">
+        <v>1</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="4">
+        <v>1</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="4">
+        <v>1</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="4">
+        <v>1</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="4">
+        <v>1</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="4">
+        <v>1</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="4">
+        <v>1</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="4">
+        <v>1</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="4">
+        <v>1</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="4">
+        <v>1</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="4">
+        <v>1</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="4">
+        <v>1</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="4">
+        <v>1</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="4">
+        <v>1</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="4">
+        <v>1</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="4">
+        <v>1</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="4">
+        <v>1</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="4">
+        <v>1</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="4">
+        <v>1</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="4">
+        <v>1</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="4">
+        <v>1</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="4">
+        <v>1</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="4">
+        <v>1</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="4">
+        <v>1</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="4">
+        <v>1</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="4">
+        <v>1</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="4">
+        <v>1</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="4">
+        <v>1</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="4">
+        <v>1</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="4">
+        <v>1</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="4">
+        <v>1</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="4">
+        <v>1</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="4">
+        <v>1</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="4">
+        <v>1</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="4">
+        <v>1</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="4">
+        <v>1</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="4">
+        <v>1</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="4">
+        <v>1</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="3">
+        <f>COUNTIF(A2:A748,1)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="10">
+        <f>COUNTIF(A2:A748,0)</f>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -9503,10 +10248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView topLeftCell="A364" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9519,10 +10264,10 @@
       <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -12319,6 +13064,150 @@
       </c>
       <c r="B351" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <v>1</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>1</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <v>1</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>1</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>1</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>1</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <v>1</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>1</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>1</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>1</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>1</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <v>1</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>1</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <v>1</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>1</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <v>1</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>1</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>1116</v>
       </c>
     </row>
   </sheetData>

--- a/Corona.xlsx
+++ b/Corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Insper\2° semestre\CDados\Projetos\Projeto1_Cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A361D-AB75-459D-8C9C-3DD585EAA010}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1625A3-9FD9-4F52-A509-F77220F8F2D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4230,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D751"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D678" sqref="D678"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="A750" sqref="A750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10248,10 +10248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B369"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13210,6 +13210,18 @@
         <v>1116</v>
       </c>
     </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="5">
+        <f>COUNTIF(A2:A369,1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="5">
+        <f>COUNTIF(A2:A369,0)</f>
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
